--- a/Doppler/270ch/3_Doppler270ch_determine_smile_and_instru/Doppler270ch_determine_smile_and_instru.xlsx
+++ b/Doppler/270ch/3_Doppler270ch_determine_smile_and_instru/Doppler270ch_determine_smile_and_instru.xlsx
@@ -13,19 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>smile_new</t>
-  </si>
-  <si>
-    <t>instru_new</t>
-  </si>
-  <si>
-    <t>smile_new</t>
-  </si>
-  <si>
-    <t>passive_Ti</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>smile_new</t>
   </si>
@@ -85,10 +73,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -96,15 +84,15 @@
         <v>237.32579837796641</v>
       </c>
       <c r="B2" s="0">
-        <v>6.0869975702923362</v>
+        <v>6.0869975702899026</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>237.32146161795174</v>
+        <v>237.32146161795197</v>
       </c>
       <c r="B3" s="0">
-        <v>6.7599802573405867</v>
+        <v>6.7599802571960037</v>
       </c>
     </row>
     <row r="4">
@@ -112,7 +100,7 @@
         <v>235.52445497339443</v>
       </c>
       <c r="B4" s="0">
-        <v>6.1627855385750792</v>
+        <v>6.1627855385915682</v>
       </c>
     </row>
     <row r="5">
@@ -120,7 +108,7 @@
         <v>239.11764594069109</v>
       </c>
       <c r="B5" s="0">
-        <v>5.8520681593229371</v>
+        <v>5.8520681592958912</v>
       </c>
     </row>
     <row r="6">
@@ -128,7 +116,7 @@
         <v>235.51802686623023</v>
       </c>
       <c r="B6" s="0">
-        <v>5.7194928522284849</v>
+        <v>5.719492852264211</v>
       </c>
     </row>
     <row r="7">
@@ -136,7 +124,7 @@
         <v>237.31561021096718</v>
       </c>
       <c r="B7" s="0">
-        <v>5.8709179010895367</v>
+        <v>5.8709179010973136</v>
       </c>
     </row>
     <row r="8">
@@ -144,7 +132,7 @@
         <v>235.51857208289277</v>
       </c>
       <c r="B8" s="0">
-        <v>5.7315190102841793</v>
+        <v>5.7315190102665587</v>
       </c>
     </row>
     <row r="9">
@@ -152,7 +140,7 @@
         <v>233.71981104332474</v>
       </c>
       <c r="B9" s="0">
-        <v>5.7680114766595416</v>
+        <v>5.7680114767176596</v>
       </c>
     </row>
     <row r="10">
@@ -160,15 +148,15 @@
         <v>235.5155862277129</v>
       </c>
       <c r="B10" s="0">
-        <v>5.7179088128275941</v>
+        <v>5.7179088127748408</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>235.51347776099806</v>
+        <v>235.51347776099794</v>
       </c>
       <c r="B11" s="0">
-        <v>5.5527989842995344</v>
+        <v>5.5527989843141281</v>
       </c>
     </row>
     <row r="12">
@@ -176,7 +164,7 @@
         <v>233.71706579846557</v>
       </c>
       <c r="B12" s="0">
-        <v>5.4871379198604382</v>
+        <v>5.4871379198672257</v>
       </c>
     </row>
     <row r="13">
@@ -184,7 +172,7 @@
         <v>231.91601101096239</v>
       </c>
       <c r="B13" s="0">
-        <v>5.3877207457341116</v>
+        <v>5.3877207457521665</v>
       </c>
     </row>
     <row r="14">
@@ -192,7 +180,7 @@
         <v>231.91406709098771</v>
       </c>
       <c r="B14" s="0">
-        <v>5.3013715419820757</v>
+        <v>5.3013715420236682</v>
       </c>
     </row>
     <row r="15">
@@ -200,7 +188,7 @@
         <v>230.11545640196152</v>
       </c>
       <c r="B15" s="0">
-        <v>5.399237608619968</v>
+        <v>5.3992376086197753</v>
       </c>
     </row>
     <row r="16">
@@ -208,7 +196,7 @@
         <v>231.9128351645237</v>
       </c>
       <c r="B16" s="0">
-        <v>5.1275132322049606</v>
+        <v>5.1275132321943584</v>
       </c>
     </row>
     <row r="17">
@@ -216,7 +204,7 @@
         <v>231.91021106867549</v>
       </c>
       <c r="B17" s="0">
-        <v>5.2817202357814432</v>
+        <v>5.2817202358392903</v>
       </c>
     </row>
     <row r="18">
@@ -224,7 +212,7 @@
         <v>230.11295960937309</v>
       </c>
       <c r="B18" s="0">
-        <v>4.9617863111505862</v>
+        <v>4.9617863111420277</v>
       </c>
     </row>
     <row r="19">
@@ -232,7 +220,7 @@
         <v>230.11344085977782</v>
       </c>
       <c r="B19" s="0">
-        <v>4.8439279803030022</v>
+        <v>4.8439279802974173</v>
       </c>
     </row>
     <row r="20">
@@ -240,7 +228,7 @@
         <v>231.90953289555603</v>
       </c>
       <c r="B20" s="0">
-        <v>5.0745468402272706</v>
+        <v>5.0745468402990541</v>
       </c>
     </row>
     <row r="21">
@@ -248,7 +236,7 @@
         <v>230.10957270244091</v>
       </c>
       <c r="B21" s="0">
-        <v>4.8062949281594092</v>
+        <v>4.8062949281350598</v>
       </c>
     </row>
     <row r="22">
@@ -256,7 +244,7 @@
         <v>230.10834445449905</v>
       </c>
       <c r="B22" s="0">
-        <v>4.769780975965543</v>
+        <v>4.7697809759385015</v>
       </c>
     </row>
     <row r="23">
@@ -264,7 +252,7 @@
         <v>231.90586369085293</v>
       </c>
       <c r="B23" s="0">
-        <v>4.6903228140630544</v>
+        <v>4.6903228140528128</v>
       </c>
     </row>
     <row r="24">
@@ -272,15 +260,15 @@
         <v>231.90526851767106</v>
       </c>
       <c r="B24" s="0">
-        <v>4.5905680715753512</v>
+        <v>4.5905680716061523</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>228.30931547938667</v>
+        <v>228.30931547938678</v>
       </c>
       <c r="B25" s="0">
-        <v>4.729907236096099</v>
+        <v>4.7299072361222434</v>
       </c>
     </row>
     <row r="26">
@@ -288,15 +276,15 @@
         <v>230.10533585709595</v>
       </c>
       <c r="B26" s="0">
-        <v>4.3892627635174479</v>
+        <v>4.3892627635179675</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>228.30713562833148</v>
+        <v>228.30713562833159</v>
       </c>
       <c r="B27" s="0">
-        <v>5.0648721772163565</v>
+        <v>5.0648721772434193</v>
       </c>
     </row>
     <row r="28">
@@ -304,7 +292,7 @@
         <v>226.50892759957685</v>
       </c>
       <c r="B28" s="0">
-        <v>4.4703809477953067</v>
+        <v>4.4703809477896899</v>
       </c>
     </row>
     <row r="29">
@@ -312,7 +300,7 @@
         <v>228.30484080909184</v>
       </c>
       <c r="B29" s="0">
-        <v>5.2402549199387281</v>
+        <v>5.2402549200010808</v>
       </c>
     </row>
     <row r="30">
@@ -320,7 +308,7 @@
         <v>226.50741369970967</v>
       </c>
       <c r="B30" s="0">
-        <v>4.3615448902297986</v>
+        <v>4.3615448902012153</v>
       </c>
     </row>
     <row r="31">
@@ -328,7 +316,7 @@
         <v>228.30508287810824</v>
       </c>
       <c r="B31" s="0">
-        <v>4.3881196234682882</v>
+        <v>4.3881196234535693</v>
       </c>
     </row>
     <row r="32">
@@ -336,7 +324,7 @@
         <v>226.5065334901368</v>
       </c>
       <c r="B32" s="0">
-        <v>4.3240228745561682</v>
+        <v>4.32402287456505</v>
       </c>
     </row>
     <row r="33">
@@ -344,7 +332,7 @@
         <v>226.50477782126961</v>
       </c>
       <c r="B33" s="0">
-        <v>4.9999057766571982</v>
+        <v>4.9999057766155621</v>
       </c>
     </row>
     <row r="34">
@@ -352,7 +340,7 @@
         <v>228.30225725107937</v>
       </c>
       <c r="B34" s="0">
-        <v>4.2576680052762272</v>
+        <v>4.2576680053147173</v>
       </c>
     </row>
     <row r="35">
@@ -360,7 +348,7 @@
         <v>226.50392070919372</v>
       </c>
       <c r="B35" s="0">
-        <v>4.2628817052710097</v>
+        <v>4.262881705280086</v>
       </c>
     </row>
     <row r="36">
@@ -368,7 +356,7 @@
         <v>226.50285411899767</v>
       </c>
       <c r="B36" s="0">
-        <v>4.319724315208969</v>
+        <v>4.3197243152172646</v>
       </c>
     </row>
     <row r="37">
@@ -376,7 +364,7 @@
         <v>228.29965043958953</v>
       </c>
       <c r="B37" s="0">
-        <v>4.1250355851898624</v>
+        <v>4.1250355851775149</v>
       </c>
     </row>
     <row r="38">
@@ -384,7 +372,7 @@
         <v>226.50055228271367</v>
       </c>
       <c r="B38" s="0">
-        <v>4.5214045427923413</v>
+        <v>4.5214045427876766</v>
       </c>
     </row>
     <row r="39">
@@ -392,7 +380,7 @@
         <v>228.29864651943842</v>
       </c>
       <c r="B39" s="0">
-        <v>4.133334606768206</v>
+        <v>4.1333346067958914</v>
       </c>
     </row>
     <row r="40">
@@ -400,7 +388,7 @@
         <v>224.70277109134065</v>
       </c>
       <c r="B40" s="0">
-        <v>4.3425983691894992</v>
+        <v>4.3425983692157057</v>
       </c>
     </row>
     <row r="41">
@@ -408,7 +396,7 @@
         <v>224.70182049413802</v>
       </c>
       <c r="B41" s="0">
-        <v>4.2344146856334994</v>
+        <v>4.2344146856258353</v>
       </c>
     </row>
     <row r="42">
@@ -416,23 +404,23 @@
         <v>226.49886645080301</v>
       </c>
       <c r="B42" s="0">
-        <v>4.354676856530264</v>
+        <v>4.354676856526309</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>222.90327721739266</v>
+        <v>222.90327721739254</v>
       </c>
       <c r="B43" s="0">
-        <v>4.2663055359840421</v>
+        <v>4.2663055359826645</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>226.49349197757851</v>
+        <v>226.4934919775784</v>
       </c>
       <c r="B44" s="0">
-        <v>10.352165798982782</v>
+        <v>10.352165799021838</v>
       </c>
     </row>
     <row r="45">
@@ -440,7 +428,7 @@
         <v>225.1711145232324</v>
       </c>
       <c r="B45" s="0">
-        <v>4.2813932469823399</v>
+        <v>4.2813932469538223</v>
       </c>
     </row>
     <row r="46">
@@ -448,7 +436,7 @@
         <v>226.98678756863455</v>
       </c>
       <c r="B46" s="0">
-        <v>4.3591635513598392</v>
+        <v>4.3591635513521458</v>
       </c>
     </row>
     <row r="47">
@@ -456,7 +444,7 @@
         <v>225.16964249432965</v>
       </c>
       <c r="B47" s="0">
-        <v>4.3900103231106078</v>
+        <v>4.3900103231260195</v>
       </c>
     </row>
     <row r="48">
@@ -464,7 +452,7 @@
         <v>225.1656980524275</v>
       </c>
       <c r="B48" s="0">
-        <v>7.8387610462924098</v>
+        <v>7.8387610463307755</v>
       </c>
     </row>
     <row r="49">
@@ -472,7 +460,7 @@
         <v>225.17061077125084</v>
       </c>
       <c r="B49" s="0">
-        <v>4.4449774526720791</v>
+        <v>4.444977452665551</v>
       </c>
     </row>
     <row r="50">
@@ -480,7 +468,7 @@
         <v>223.35253525271548</v>
       </c>
       <c r="B50" s="0">
-        <v>4.7898703319096176</v>
+        <v>4.7898703318550346</v>
       </c>
     </row>
     <row r="51">
@@ -488,7 +476,7 @@
         <v>223.35106432596956</v>
       </c>
       <c r="B51" s="0">
-        <v>4.6598336634621962</v>
+        <v>4.6598336634954229</v>
       </c>
     </row>
     <row r="52">
@@ -496,7 +484,7 @@
         <v>223.35040702673496</v>
       </c>
       <c r="B52" s="0">
-        <v>4.9547155755982368</v>
+        <v>4.9547155755495442</v>
       </c>
     </row>
     <row r="53">
@@ -504,15 +492,15 @@
         <v>225.16798832155246</v>
       </c>
       <c r="B53" s="0">
-        <v>4.8434235248811364</v>
+        <v>4.843423524893935</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>221.53459642891687</v>
+        <v>221.53459642891698</v>
       </c>
       <c r="B54" s="0">
-        <v>4.8358132750765117</v>
+        <v>4.8358132751099632</v>
       </c>
     </row>
     <row r="55">
@@ -520,7 +508,7 @@
         <v>225.16718219622362</v>
       </c>
       <c r="B55" s="0">
-        <v>4.8010053660134338</v>
+        <v>4.801005365961486</v>
       </c>
     </row>
     <row r="56">
@@ -528,15 +516,15 @@
         <v>225.16849366097915</v>
       </c>
       <c r="B56" s="0">
-        <v>5.1307644004070339</v>
+        <v>5.1307644004112127</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>223.35014410900601</v>
+        <v>223.3501441090059</v>
       </c>
       <c r="B57" s="0">
-        <v>5.2495996036891786</v>
+        <v>5.2495996037110411</v>
       </c>
     </row>
     <row r="58">
@@ -544,7 +532,7 @@
         <v>225.16878904855082</v>
       </c>
       <c r="B58" s="0">
-        <v>5.1617792857872891</v>
+        <v>5.1617792858056477</v>
       </c>
     </row>
     <row r="59">
@@ -552,7 +540,7 @@
         <v>225.16815331510043</v>
       </c>
       <c r="B59" s="0">
-        <v>4.9606856034550129</v>
+        <v>4.9606856034410116</v>
       </c>
     </row>
     <row r="60">
@@ -560,7 +548,7 @@
         <v>223.35075262007319</v>
       </c>
       <c r="B60" s="0">
-        <v>5.2894599859748821</v>
+        <v>5.2894599859405025</v>
       </c>
     </row>
     <row r="61">
@@ -568,7 +556,7 @@
         <v>223.35074092797061</v>
       </c>
       <c r="B61" s="0">
-        <v>5.5953949290118272</v>
+        <v>5.5953949289749163</v>
       </c>
     </row>
     <row r="62">
@@ -576,7 +564,7 @@
         <v>374.69984475021965</v>
       </c>
       <c r="B62" s="0">
-        <v>5.7798756180648878</v>
+        <v>5.7798756180876998</v>
       </c>
     </row>
     <row r="63">
@@ -584,7 +572,7 @@
         <v>371.06706506215232</v>
       </c>
       <c r="B63" s="0">
-        <v>6.2725639630022147</v>
+        <v>6.2725639629835603</v>
       </c>
     </row>
     <row r="64">
@@ -592,7 +580,7 @@
         <v>372.88132790003681</v>
       </c>
       <c r="B64" s="0">
-        <v>6.1355239721793096</v>
+        <v>6.1355239721562604</v>
       </c>
     </row>
     <row r="65">
@@ -600,7 +588,7 @@
         <v>374.69578342121486</v>
       </c>
       <c r="B65" s="0">
-        <v>6.0240596567397127</v>
+        <v>6.0240596567102997</v>
       </c>
     </row>
     <row r="66">
@@ -608,7 +596,7 @@
         <v>372.88104795121092</v>
       </c>
       <c r="B66" s="0">
-        <v>5.7173318623101519</v>
+        <v>5.71733186230857</v>
       </c>
     </row>
     <row r="67">
@@ -616,7 +604,7 @@
         <v>372.87695855875461</v>
       </c>
       <c r="B67" s="0">
-        <v>5.7943726607357249</v>
+        <v>5.7943726607567481</v>
       </c>
     </row>
     <row r="68">
@@ -624,7 +612,7 @@
         <v>369.23932978624896</v>
       </c>
       <c r="B68" s="0">
-        <v>5.791463441393935</v>
+        <v>5.7914634413777337</v>
       </c>
     </row>
     <row r="69">
@@ -632,7 +620,7 @@
         <v>371.05415204384133</v>
       </c>
       <c r="B69" s="0">
-        <v>5.6130365933281263</v>
+        <v>5.6130365933342086</v>
       </c>
     </row>
     <row r="70">
@@ -640,7 +628,7 @@
         <v>371.05388610368516</v>
       </c>
       <c r="B70" s="0">
-        <v>5.8549663828433527</v>
+        <v>5.8549663828149763</v>
       </c>
     </row>
     <row r="71">
@@ -648,7 +636,7 @@
         <v>369.23627363765888</v>
       </c>
       <c r="B71" s="0">
-        <v>5.6796060153216237</v>
+        <v>5.6796060153109016</v>
       </c>
     </row>
     <row r="72">
@@ -656,7 +644,7 @@
         <v>371.05178678809489</v>
       </c>
       <c r="B72" s="0">
-        <v>5.5363273705678484</v>
+        <v>5.536327370564079</v>
       </c>
     </row>
     <row r="73">
@@ -664,7 +652,7 @@
         <v>369.23373531419281</v>
       </c>
       <c r="B73" s="0">
-        <v>5.475213428436164</v>
+        <v>5.4752134284591634</v>
       </c>
     </row>
     <row r="74">
@@ -672,7 +660,7 @@
         <v>369.23270844614319</v>
       </c>
       <c r="B74" s="0">
-        <v>5.5180620916790737</v>
+        <v>5.5180620916908385</v>
       </c>
     </row>
     <row r="75">
@@ -680,7 +668,7 @@
         <v>371.05016058297019</v>
       </c>
       <c r="B75" s="0">
-        <v>5.3349980173594576</v>
+        <v>5.3349980173600153</v>
       </c>
     </row>
     <row r="76">
@@ -688,7 +676,7 @@
         <v>369.23260284807463</v>
       </c>
       <c r="B76" s="0">
-        <v>5.4905714404893233</v>
+        <v>5.4905714404891786</v>
       </c>
     </row>
     <row r="77">
@@ -696,7 +684,7 @@
         <v>371.04272885455032</v>
       </c>
       <c r="B77" s="0">
-        <v>5.309448341199948</v>
+        <v>5.3094483412474176</v>
       </c>
     </row>
     <row r="78">
@@ -704,7 +692,7 @@
         <v>369.22695800258055</v>
       </c>
       <c r="B78" s="0">
-        <v>5.2301206169022443</v>
+        <v>5.2301206168938972</v>
       </c>
     </row>
     <row r="79">
@@ -712,7 +700,7 @@
         <v>367.41017452641233</v>
       </c>
       <c r="B79" s="0">
-        <v>5.3682306851111097</v>
+        <v>5.3682306851575072</v>
       </c>
     </row>
     <row r="80">
@@ -720,7 +708,7 @@
         <v>369.22738837214399</v>
       </c>
       <c r="B80" s="0">
-        <v>5.1708676052962304</v>
+        <v>5.1708676053211038</v>
       </c>
     </row>
     <row r="81">
@@ -728,7 +716,7 @@
         <v>369.2232780448627</v>
       </c>
       <c r="B81" s="0">
-        <v>5.1301963838657718</v>
+        <v>5.1301963838843365</v>
       </c>
     </row>
     <row r="82">
@@ -736,7 +724,7 @@
         <v>367.4077794019712</v>
       </c>
       <c r="B82" s="0">
-        <v>5.2146467180145626</v>
+        <v>5.2146467180387344</v>
       </c>
     </row>
     <row r="83">
@@ -744,7 +732,7 @@
         <v>367.40674235112965</v>
       </c>
       <c r="B83" s="0">
-        <v>5.2340266715081496</v>
+        <v>5.2340266715238464</v>
       </c>
     </row>
     <row r="84">
@@ -752,7 +740,7 @@
         <v>369.22194020482618</v>
       </c>
       <c r="B84" s="0">
-        <v>5.0129618654645727</v>
+        <v>5.0129618655113832</v>
       </c>
     </row>
     <row r="85">
@@ -760,7 +748,7 @@
         <v>367.40478033651561</v>
       </c>
       <c r="B85" s="0">
-        <v>5.0549288776286962</v>
+        <v>5.0549288776342944</v>
       </c>
     </row>
     <row r="86">
@@ -768,15 +756,15 @@
         <v>365.58948435285913</v>
       </c>
       <c r="B86" s="0">
-        <v>5.6687383591670155</v>
+        <v>5.6687383591629121</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>367.40329313058305</v>
+        <v>367.40329313058317</v>
       </c>
       <c r="B87" s="0">
-        <v>4.9871832082213556</v>
+        <v>4.9871832081717757</v>
       </c>
     </row>
     <row r="88">
@@ -784,7 +772,7 @@
         <v>365.58623327378052</v>
       </c>
       <c r="B88" s="0">
-        <v>4.9872093427561754</v>
+        <v>4.9872093428085913</v>
       </c>
     </row>
     <row r="89">
@@ -792,7 +780,7 @@
         <v>365.58440591936085</v>
       </c>
       <c r="B89" s="0">
-        <v>4.9690535909390388</v>
+        <v>4.9690535909500833</v>
       </c>
     </row>
     <row r="90">
@@ -800,7 +788,7 @@
         <v>365.58396758224353</v>
       </c>
       <c r="B90" s="0">
-        <v>4.5544159825435839</v>
+        <v>4.5544159825327775</v>
       </c>
     </row>
     <row r="91">
@@ -808,7 +796,7 @@
         <v>367.40020667366446</v>
       </c>
       <c r="B91" s="0">
-        <v>5.259484628119985</v>
+        <v>5.2594846281804477</v>
       </c>
     </row>
     <row r="92">
@@ -816,7 +804,7 @@
         <v>367.40139110980897</v>
       </c>
       <c r="B92" s="0">
-        <v>4.841843713329034</v>
+        <v>4.8418437133031329</v>
       </c>
     </row>
     <row r="93">
@@ -824,7 +812,7 @@
         <v>363.76594273370461</v>
       </c>
       <c r="B93" s="0">
-        <v>4.9398785779138459</v>
+        <v>4.939878577911899</v>
       </c>
     </row>
     <row r="94">
@@ -832,7 +820,7 @@
         <v>365.58236343472174</v>
       </c>
       <c r="B94" s="0">
-        <v>4.8403399296662686</v>
+        <v>4.8403399296769569</v>
       </c>
     </row>
     <row r="95">
@@ -840,7 +828,7 @@
         <v>367.40224590316336</v>
       </c>
       <c r="B95" s="0">
-        <v>5.6398803681206875</v>
+        <v>5.6398803681347403</v>
       </c>
     </row>
     <row r="96">
@@ -848,7 +836,7 @@
         <v>365.5826097198036</v>
       </c>
       <c r="B96" s="0">
-        <v>5.2618242816127312</v>
+        <v>5.2618242816029577</v>
       </c>
     </row>
     <row r="97">
@@ -856,7 +844,7 @@
         <v>365.58093788747908</v>
       </c>
       <c r="B97" s="0">
-        <v>4.9861190708302026</v>
+        <v>4.9861190707874963</v>
       </c>
     </row>
     <row r="98">
@@ -864,7 +852,7 @@
         <v>365.5792770093027</v>
       </c>
       <c r="B98" s="0">
-        <v>4.8824420348010511</v>
+        <v>4.8824420347590323</v>
       </c>
     </row>
     <row r="99">
@@ -872,7 +860,7 @@
         <v>363.76472844502257</v>
       </c>
       <c r="B99" s="0">
-        <v>5.2103151942116677</v>
+        <v>5.210315194216661</v>
       </c>
     </row>
     <row r="100">
@@ -880,7 +868,7 @@
         <v>367.3983490349101</v>
       </c>
       <c r="B100" s="0">
-        <v>5.1321809606823754</v>
+        <v>5.1321809606465898</v>
       </c>
     </row>
     <row r="101">
@@ -888,7 +876,7 @@
         <v>365.57841340564937</v>
       </c>
       <c r="B101" s="0">
-        <v>4.9744376049580854</v>
+        <v>4.9744376049555594</v>
       </c>
     </row>
     <row r="102">
@@ -896,7 +884,7 @@
         <v>365.57785889245918</v>
       </c>
       <c r="B102" s="0">
-        <v>5.0601008230031788</v>
+        <v>5.0601008229897095</v>
       </c>
     </row>
     <row r="103">
@@ -904,7 +892,7 @@
         <v>367.39231789135863</v>
       </c>
       <c r="B103" s="0">
-        <v>4.5227988950966287</v>
+        <v>4.5227988951094025</v>
       </c>
     </row>
     <row r="104">
@@ -912,7 +900,7 @@
         <v>365.57673812087808</v>
       </c>
       <c r="B104" s="0">
-        <v>5.1700891707414982</v>
+        <v>5.1700891707158023</v>
       </c>
     </row>
     <row r="105">
@@ -920,7 +908,7 @@
         <v>363.75948614872357</v>
       </c>
       <c r="B105" s="0">
-        <v>5.2453316589665508</v>
+        <v>5.2453316589865198</v>
       </c>
     </row>
     <row r="106">
@@ -928,7 +916,7 @@
         <v>363.7588659918805</v>
       </c>
       <c r="B106" s="0">
-        <v>5.1998829896178247</v>
+        <v>5.1998829896370671</v>
       </c>
     </row>
     <row r="107">
@@ -936,7 +924,7 @@
         <v>361.93987459553398</v>
       </c>
       <c r="B107" s="0">
-        <v>4.852440035006957</v>
+        <v>4.8524400350280139</v>
       </c>
     </row>
     <row r="108">
@@ -944,7 +932,7 @@
         <v>360.12166594511507</v>
       </c>
       <c r="B108" s="0">
-        <v>5.0418770611114763</v>
+        <v>5.0418770610871402</v>
       </c>
     </row>
     <row r="109">
@@ -952,7 +940,7 @@
         <v>363.75983239870004</v>
       </c>
       <c r="B109" s="0">
-        <v>5.2332657241841165</v>
+        <v>5.2332657241955474</v>
       </c>
     </row>
     <row r="110">
@@ -960,7 +948,7 @@
         <v>361.94178438087727</v>
       </c>
       <c r="B110" s="0">
-        <v>5.3182965598797187</v>
+        <v>5.3182965598521976</v>
       </c>
     </row>
     <row r="111">
@@ -968,7 +956,7 @@
         <v>361.9415331593641</v>
       </c>
       <c r="B111" s="0">
-        <v>5.807930730603454</v>
+        <v>5.8079307306628234</v>
       </c>
     </row>
     <row r="112">
@@ -976,7 +964,7 @@
         <v>361.93997526177907</v>
       </c>
       <c r="B112" s="0">
-        <v>5.1825236064842537</v>
+        <v>5.1825236064632501</v>
       </c>
     </row>
     <row r="113">
@@ -984,7 +972,7 @@
         <v>360.12387770573605</v>
       </c>
       <c r="B113" s="0">
-        <v>5.8859040578235993</v>
+        <v>5.8859040578243116</v>
       </c>
     </row>
     <row r="114">
@@ -992,7 +980,7 @@
         <v>361.93686273769492</v>
       </c>
       <c r="B114" s="0">
-        <v>5.1495823375013563</v>
+        <v>5.1495823375202532</v>
       </c>
     </row>
     <row r="115">
@@ -1000,7 +988,7 @@
         <v>365.57297654146339</v>
       </c>
       <c r="B115" s="0">
-        <v>5.5000531090649227</v>
+        <v>5.500053109009948</v>
       </c>
     </row>
     <row r="116">
@@ -1008,7 +996,7 @@
         <v>363.75803496553783</v>
       </c>
       <c r="B116" s="0">
-        <v>5.6533462198931037</v>
+        <v>5.6533462198992224</v>
       </c>
     </row>
     <row r="117">
@@ -1016,7 +1004,7 @@
         <v>361.94298885984392</v>
       </c>
       <c r="B117" s="0">
-        <v>5.6849071742262414</v>
+        <v>5.6849071742165522</v>
       </c>
     </row>
     <row r="118">
@@ -1024,7 +1012,7 @@
         <v>363.76037477542195</v>
       </c>
       <c r="B118" s="0">
-        <v>5.7589793705646342</v>
+        <v>5.7589793705422494</v>
       </c>
     </row>
     <row r="119">
@@ -1032,7 +1020,7 @@
         <v>363.75986432157845</v>
       </c>
       <c r="B119" s="0">
-        <v>5.6220556573730178</v>
+        <v>5.6220556573880049</v>
       </c>
     </row>
     <row r="120">
@@ -1040,7 +1028,7 @@
         <v>365.5770942480159</v>
       </c>
       <c r="B120" s="0">
-        <v>5.4706787669299715</v>
+        <v>5.4706787669083017</v>
       </c>
     </row>
     <row r="121">
@@ -1048,7 +1036,7 @@
         <v>361.94060915156695</v>
       </c>
       <c r="B121" s="0">
-        <v>5.3551671703472392</v>
+        <v>5.3551671702912289</v>
       </c>
     </row>
     <row r="122">
@@ -1056,7 +1044,7 @@
         <v>515.10480172481221</v>
       </c>
       <c r="B122" s="0">
-        <v>6.1445441215461294</v>
+        <v>6.1445441215604948</v>
       </c>
     </row>
     <row r="123">
@@ -1064,7 +1052,7 @@
         <v>511.46765276464544</v>
       </c>
       <c r="B123" s="0">
-        <v>6.0744617923413182</v>
+        <v>6.0744617923365931</v>
       </c>
     </row>
     <row r="124">
@@ -1072,7 +1060,7 @@
         <v>511.4669010778382</v>
       </c>
       <c r="B124" s="0">
-        <v>5.8475021019389732</v>
+        <v>5.8475021019441371</v>
       </c>
     </row>
     <row r="125">
@@ -1080,7 +1068,7 @@
         <v>511.46483277812126</v>
       </c>
       <c r="B125" s="0">
-        <v>5.9062229073728894</v>
+        <v>5.9062229073693153</v>
       </c>
     </row>
     <row r="126">
@@ -1088,7 +1076,7 @@
         <v>511.46134288317205</v>
       </c>
       <c r="B126" s="0">
-        <v>5.7822011506912405</v>
+        <v>5.7822011506534148</v>
       </c>
     </row>
     <row r="127">
@@ -1096,7 +1084,7 @@
         <v>511.46271658022931</v>
       </c>
       <c r="B127" s="0">
-        <v>5.9040918271876093</v>
+        <v>5.9040918271719951</v>
       </c>
     </row>
     <row r="128">
@@ -1104,15 +1092,15 @@
         <v>509.64424726973732</v>
       </c>
       <c r="B128" s="0">
-        <v>5.9692814195965465</v>
+        <v>5.969281419562944</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>507.82251106330602</v>
+        <v>507.82251106330614</v>
       </c>
       <c r="B129" s="0">
-        <v>6.0785929344791656</v>
+        <v>6.0785929344310752</v>
       </c>
     </row>
     <row r="130">
@@ -1120,7 +1108,7 @@
         <v>509.64015676978067</v>
       </c>
       <c r="B130" s="0">
-        <v>5.7763422872356429</v>
+        <v>5.7763422872296601</v>
       </c>
     </row>
     <row r="131">
@@ -1128,7 +1116,7 @@
         <v>509.63980252673218</v>
       </c>
       <c r="B131" s="0">
-        <v>5.8778744709153283</v>
+        <v>5.8778744708918387</v>
       </c>
     </row>
     <row r="132">
@@ -1136,7 +1124,7 @@
         <v>509.63927722258984</v>
       </c>
       <c r="B132" s="0">
-        <v>5.890021999984822</v>
+        <v>5.8900220000432029</v>
       </c>
     </row>
     <row r="133">
@@ -1144,7 +1132,7 @@
         <v>509.63809188696098</v>
       </c>
       <c r="B133" s="0">
-        <v>5.8852139952195346</v>
+        <v>5.8852139951912941</v>
       </c>
     </row>
     <row r="134">
@@ -1152,7 +1140,7 @@
         <v>507.82044215047949</v>
       </c>
       <c r="B134" s="0">
-        <v>5.8148516969506439</v>
+        <v>5.8148516969519903</v>
       </c>
     </row>
     <row r="135">
@@ -1160,7 +1148,7 @@
         <v>509.63534153553076</v>
       </c>
       <c r="B135" s="0">
-        <v>5.7067577667764899</v>
+        <v>5.7067577667562244</v>
       </c>
     </row>
     <row r="136">
@@ -1168,7 +1156,7 @@
         <v>507.81706577895432</v>
       </c>
       <c r="B136" s="0">
-        <v>5.5812059232808009</v>
+        <v>5.581205923273</v>
       </c>
     </row>
     <row r="137">
@@ -1176,7 +1164,7 @@
         <v>505.99770154874057</v>
       </c>
       <c r="B137" s="0">
-        <v>5.4790088696307233</v>
+        <v>5.4790088696167381</v>
       </c>
     </row>
     <row r="138">
@@ -1184,7 +1172,7 @@
         <v>507.42994470830195</v>
       </c>
       <c r="B138" s="0">
-        <v>5.8280229705181963</v>
+        <v>5.828022970536467</v>
       </c>
     </row>
     <row r="139">
@@ -1192,7 +1180,7 @@
         <v>503.79391923631533</v>
       </c>
       <c r="B139" s="0">
-        <v>5.7462403154205877</v>
+        <v>5.7462403154466113</v>
       </c>
     </row>
     <row r="140">
@@ -1200,7 +1188,7 @@
         <v>505.6092845986733</v>
       </c>
       <c r="B140" s="0">
-        <v>5.6900558209867134</v>
+        <v>5.690055820989433</v>
       </c>
     </row>
     <row r="141">
@@ -1208,7 +1196,7 @@
         <v>507.4259247048343</v>
       </c>
       <c r="B141" s="0">
-        <v>5.4505521913121449</v>
+        <v>5.4505521913436299</v>
       </c>
     </row>
     <row r="142">
@@ -1216,7 +1204,7 @@
         <v>505.6073889492186</v>
       </c>
       <c r="B142" s="0">
-        <v>5.4714257683079035</v>
+        <v>5.4714257683120007</v>
       </c>
     </row>
     <row r="143">
@@ -1224,7 +1212,7 @@
         <v>505.60713743009535</v>
       </c>
       <c r="B143" s="0">
-        <v>5.5561214401047447</v>
+        <v>5.5561214400789858</v>
       </c>
     </row>
     <row r="144">
@@ -1232,7 +1220,7 @@
         <v>503.78908724623773</v>
       </c>
       <c r="B144" s="0">
-        <v>5.5383593004783362</v>
+        <v>5.5383593004526936</v>
       </c>
     </row>
     <row r="145">
@@ -1240,7 +1228,7 @@
         <v>503.78861184228151</v>
       </c>
       <c r="B145" s="0">
-        <v>5.3146106205185566</v>
+        <v>5.3146106205356665</v>
       </c>
     </row>
     <row r="146">
@@ -1248,7 +1236,7 @@
         <v>505.60432985684884</v>
       </c>
       <c r="B146" s="0">
-        <v>5.4819254653852463</v>
+        <v>5.4819254653737461</v>
       </c>
     </row>
     <row r="147">
@@ -1256,7 +1244,7 @@
         <v>503.78677445327128</v>
       </c>
       <c r="B147" s="0">
-        <v>5.4811575786477267</v>
+        <v>5.4811575786394382</v>
       </c>
     </row>
     <row r="148">
@@ -1264,15 +1252,15 @@
         <v>503.78489596972361</v>
       </c>
       <c r="B148" s="0">
-        <v>5.3291813206343335</v>
+        <v>5.3291813206100009</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>503.78375951234875</v>
+        <v>503.78375951234887</v>
       </c>
       <c r="B149" s="0">
-        <v>5.3872203735684616</v>
+        <v>5.3872203735398596</v>
       </c>
     </row>
     <row r="150">
@@ -1280,7 +1268,7 @@
         <v>503.7829278961176</v>
       </c>
       <c r="B150" s="0">
-        <v>5.2425747785742089</v>
+        <v>5.2425747785733892</v>
       </c>
     </row>
     <row r="151">
@@ -1288,7 +1276,7 @@
         <v>501.96482859112973</v>
       </c>
       <c r="B151" s="0">
-        <v>5.1413708639784996</v>
+        <v>5.1413708639622611</v>
       </c>
     </row>
     <row r="152">
@@ -1296,7 +1284,7 @@
         <v>649.67044848296143</v>
       </c>
       <c r="B152" s="0">
-        <v>5.8327627476879362</v>
+        <v>5.8327627476979362</v>
       </c>
     </row>
     <row r="153">
@@ -1304,7 +1292,7 @@
         <v>649.67028565427142</v>
       </c>
       <c r="B153" s="0">
-        <v>5.7919899526010559</v>
+        <v>5.7919899525513072</v>
       </c>
     </row>
     <row r="154">
@@ -1312,7 +1300,7 @@
         <v>651.48445055304649</v>
       </c>
       <c r="B154" s="0">
-        <v>5.9182770619013301</v>
+        <v>5.9182770618802181</v>
       </c>
     </row>
     <row r="155">
@@ -1320,7 +1308,7 @@
         <v>651.48991934678463</v>
       </c>
       <c r="B155" s="0">
-        <v>7.4327272048532844</v>
+        <v>7.4327272049101127</v>
       </c>
     </row>
     <row r="156">
@@ -1328,7 +1316,7 @@
         <v>649.66472348634795</v>
       </c>
       <c r="B156" s="0">
-        <v>5.9178623728870754</v>
+        <v>5.9178623728751036</v>
       </c>
     </row>
     <row r="157">
@@ -1336,7 +1324,7 @@
         <v>646.03098671670966</v>
       </c>
       <c r="B157" s="0">
-        <v>6.2076929932944083</v>
+        <v>6.2076929933066731</v>
       </c>
     </row>
     <row r="158">
@@ -1344,7 +1332,7 @@
         <v>647.84635528910837</v>
       </c>
       <c r="B158" s="0">
-        <v>5.8486026887289055</v>
+        <v>5.8486026887671407</v>
       </c>
     </row>
     <row r="159">
@@ -1352,7 +1340,7 @@
         <v>646.02846505095874</v>
       </c>
       <c r="B159" s="0">
-        <v>5.9782212421251506</v>
+        <v>5.9782212421256311</v>
       </c>
     </row>
     <row r="160">
@@ -1360,7 +1348,7 @@
         <v>649.66129453791666</v>
       </c>
       <c r="B160" s="0">
-        <v>5.9928580459318104</v>
+        <v>5.9928580459157583</v>
       </c>
     </row>
     <row r="161">
@@ -1368,7 +1356,7 @@
         <v>647.83906875552282</v>
       </c>
       <c r="B161" s="0">
-        <v>6.2935168645417319</v>
+        <v>6.2935168645309396</v>
       </c>
     </row>
     <row r="162">
@@ -1376,7 +1364,7 @@
         <v>646.02267582378488</v>
       </c>
       <c r="B162" s="0">
-        <v>5.9682843504328602</v>
+        <v>5.968284350401043</v>
       </c>
     </row>
     <row r="163">
@@ -1384,7 +1372,7 @@
         <v>644.20327309949823</v>
       </c>
       <c r="B163" s="0">
-        <v>5.8272035396102488</v>
+        <v>5.8272035396232189</v>
       </c>
     </row>
     <row r="164">
@@ -1392,7 +1380,7 @@
         <v>646.02217781633419</v>
       </c>
       <c r="B164" s="0">
-        <v>6.0301317861258044</v>
+        <v>6.0301317861088144</v>
       </c>
     </row>
     <row r="165">
@@ -1400,15 +1388,15 @@
         <v>644.20317942531562</v>
       </c>
       <c r="B165" s="0">
-        <v>6.3149343380011542</v>
+        <v>6.3149343380075242</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
-        <v>646.01725859433316</v>
+        <v>646.01725859433338</v>
       </c>
       <c r="B166" s="0">
-        <v>6.3523123946644846</v>
+        <v>6.3523123946288615</v>
       </c>
     </row>
     <row r="167">
@@ -1416,7 +1404,7 @@
         <v>646.01639258389616</v>
       </c>
       <c r="B167" s="0">
-        <v>5.7319663663955165</v>
+        <v>5.7319663663945617</v>
       </c>
     </row>
     <row r="168">
@@ -1424,7 +1412,7 @@
         <v>647.83297266286093</v>
       </c>
       <c r="B168" s="0">
-        <v>5.9877848189655181</v>
+        <v>5.9877848190007885</v>
       </c>
     </row>
     <row r="169">
@@ -1432,7 +1420,7 @@
         <v>644.19485748009799</v>
       </c>
       <c r="B169" s="0">
-        <v>5.6698850377150789</v>
+        <v>5.6698850377022092</v>
       </c>
     </row>
     <row r="170">
@@ -1440,7 +1428,7 @@
         <v>644.19519171356558</v>
       </c>
       <c r="B170" s="0">
-        <v>5.9592702097928916</v>
+        <v>5.9592702097420762</v>
       </c>
     </row>
     <row r="171">
@@ -1448,7 +1436,7 @@
         <v>644.19499121545925</v>
       </c>
       <c r="B171" s="0">
-        <v>5.9828394057774519</v>
+        <v>5.9828394058131567</v>
       </c>
     </row>
     <row r="172">
@@ -1456,7 +1444,7 @@
         <v>646.00983830359871</v>
       </c>
       <c r="B172" s="0">
-        <v>6.0442070656448124</v>
+        <v>6.0442070657177949</v>
       </c>
     </row>
     <row r="173">
@@ -1464,15 +1452,15 @@
         <v>644.19486152409252</v>
       </c>
       <c r="B173" s="0">
-        <v>6.4117320298056448</v>
+        <v>6.4117320297473421</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
-        <v>646.00696942294041</v>
+        <v>646.00696942294064</v>
       </c>
       <c r="B174" s="0">
-        <v>5.727928904015136</v>
+        <v>5.7279289039939671</v>
       </c>
     </row>
     <row r="175">
@@ -1480,7 +1468,7 @@
         <v>640.55645740527268</v>
       </c>
       <c r="B175" s="0">
-        <v>6.2878815286865057</v>
+        <v>6.2878815286638696</v>
       </c>
     </row>
     <row r="176">
@@ -1488,7 +1476,7 @@
         <v>642.37222899387314</v>
       </c>
       <c r="B176" s="0">
-        <v>6.0145800962839102</v>
+        <v>6.0145800962684941</v>
       </c>
     </row>
     <row r="177">
@@ -1496,7 +1484,7 @@
         <v>642.37145577301555</v>
       </c>
       <c r="B177" s="0">
-        <v>6.1741329298651122</v>
+        <v>6.1741329298614023</v>
       </c>
     </row>
     <row r="178">
@@ -1504,7 +1492,7 @@
         <v>640.55668558504715</v>
       </c>
       <c r="B178" s="0">
-        <v>6.3378805717461555</v>
+        <v>6.3378805717001718</v>
       </c>
     </row>
     <row r="179">
@@ -1512,7 +1500,7 @@
         <v>640.55138854120821</v>
       </c>
       <c r="B179" s="0">
-        <v>5.9453626390042951</v>
+        <v>5.9453626390061212</v>
       </c>
     </row>
     <row r="180">
@@ -1520,7 +1508,7 @@
         <v>640.55044856164466</v>
       </c>
       <c r="B180" s="0">
-        <v>5.825656408561275</v>
+        <v>5.8256564085714686</v>
       </c>
     </row>
     <row r="181">
@@ -1528,7 +1516,7 @@
         <v>638.73667887959607</v>
       </c>
       <c r="B181" s="0">
-        <v>6.2689942543172581</v>
+        <v>6.2689942543233856</v>
       </c>
     </row>
     <row r="182">
@@ -1536,7 +1524,7 @@
         <v>790.07518198956711</v>
       </c>
       <c r="B182" s="0">
-        <v>5.8682840675046721</v>
+        <v>5.868284067465428</v>
       </c>
     </row>
     <row r="183">
@@ -1544,7 +1532,7 @@
         <v>786.99422281605973</v>
       </c>
       <c r="B183" s="0">
-        <v>6.6417848047731356</v>
+        <v>6.6417848047853898</v>
       </c>
     </row>
     <row r="184">
@@ -1552,7 +1540,7 @@
         <v>788.78601516818742</v>
       </c>
       <c r="B184" s="0">
-        <v>5.8959589685960028</v>
+        <v>5.8959589685499818</v>
       </c>
     </row>
     <row r="185">
@@ -1560,7 +1548,7 @@
         <v>785.19084572402346</v>
       </c>
       <c r="B185" s="0">
-        <v>6.0692026394203475</v>
+        <v>6.0692026393470719</v>
       </c>
     </row>
     <row r="186">
@@ -1568,7 +1556,7 @@
         <v>786.98735015781847</v>
       </c>
       <c r="B186" s="0">
-        <v>6.3211556052751661</v>
+        <v>6.3211556053082534</v>
       </c>
     </row>
     <row r="187">
@@ -1576,7 +1564,7 @@
         <v>788.7808667782482</v>
       </c>
       <c r="B187" s="0">
-        <v>6.2131468929833433</v>
+        <v>6.213146893070312</v>
       </c>
     </row>
     <row r="188">
@@ -1584,7 +1572,7 @@
         <v>785.18468029105463</v>
       </c>
       <c r="B188" s="0">
-        <v>5.9610703800337195</v>
+        <v>5.9610703800077678</v>
       </c>
     </row>
     <row r="189">
@@ -1592,7 +1580,7 @@
         <v>783.3857390957595</v>
       </c>
       <c r="B189" s="0">
-        <v>6.3046450914251464</v>
+        <v>6.3046450913997782</v>
       </c>
     </row>
     <row r="190">
@@ -1600,7 +1588,7 @@
         <v>786.97967831607491</v>
       </c>
       <c r="B190" s="0">
-        <v>6.0759251828698835</v>
+        <v>6.0759251829514831</v>
       </c>
     </row>
     <row r="191">
@@ -1608,7 +1596,7 @@
         <v>785.17936759990278</v>
       </c>
       <c r="B191" s="0">
-        <v>6.3053439014213639</v>
+        <v>6.3053439014017698</v>
       </c>
     </row>
     <row r="192">
@@ -1616,7 +1604,7 @@
         <v>783.38368029881019</v>
       </c>
       <c r="B192" s="0">
-        <v>5.8594331036838163</v>
+        <v>5.8594331037149683</v>
       </c>
     </row>
     <row r="193">
@@ -1624,7 +1612,7 @@
         <v>781.57937383392243</v>
       </c>
       <c r="B193" s="0">
-        <v>5.7789053884956489</v>
+        <v>5.7789053884389201</v>
       </c>
     </row>
     <row r="194">
@@ -1632,7 +1620,7 @@
         <v>785.17638039829797</v>
       </c>
       <c r="B194" s="0">
-        <v>6.3732372921166123</v>
+        <v>6.3732372920608391</v>
       </c>
     </row>
     <row r="195">
@@ -1640,7 +1628,7 @@
         <v>781.57881002329111</v>
       </c>
       <c r="B195" s="0">
-        <v>6.0567741243947166</v>
+        <v>6.0567741243833471</v>
       </c>
     </row>
     <row r="196">
@@ -1648,7 +1636,7 @@
         <v>781.57706983367291</v>
       </c>
       <c r="B196" s="0">
-        <v>5.660877159125925</v>
+        <v>5.6608771591823039</v>
       </c>
     </row>
     <row r="197">
@@ -1656,7 +1644,7 @@
         <v>781.57618354788872</v>
       </c>
       <c r="B197" s="0">
-        <v>6.4368731159559216</v>
+        <v>6.4368731159715757</v>
       </c>
     </row>
     <row r="198">
@@ -1664,7 +1652,7 @@
         <v>785.16880195006922</v>
       </c>
       <c r="B198" s="0">
-        <v>6.5677424235309703</v>
+        <v>6.5677424234646393</v>
       </c>
     </row>
     <row r="199">
@@ -1672,7 +1660,7 @@
         <v>781.57285837837242</v>
       </c>
       <c r="B199" s="0">
-        <v>6.1686938441393453</v>
+        <v>6.1686938441596944</v>
       </c>
     </row>
     <row r="200">
@@ -1680,7 +1668,7 @@
         <v>779.77398162530005</v>
       </c>
       <c r="B200" s="0">
-        <v>5.8843566356625052</v>
+        <v>5.8843566356158465</v>
       </c>
     </row>
     <row r="201">
@@ -1688,7 +1676,7 @@
         <v>781.56918911626133</v>
       </c>
       <c r="B201" s="0">
-        <v>5.8495402488702402</v>
+        <v>5.8495402488761155</v>
       </c>
     </row>
     <row r="202">
@@ -1696,7 +1684,7 @@
         <v>779.77262383960954</v>
       </c>
       <c r="B202" s="0">
-        <v>5.8793542086988788</v>
+        <v>5.8793542087428152</v>
       </c>
     </row>
     <row r="203">
@@ -1704,7 +1692,7 @@
         <v>779.77288190632942</v>
       </c>
       <c r="B203" s="0">
-        <v>6.2567037358911541</v>
+        <v>6.2567037359476201</v>
       </c>
     </row>
     <row r="204">
@@ -1712,7 +1700,7 @@
         <v>777.97357335873528</v>
       </c>
       <c r="B204" s="0">
-        <v>6.1174479265186212</v>
+        <v>6.117447926501594</v>
       </c>
     </row>
     <row r="205">
@@ -1720,7 +1708,7 @@
         <v>779.77157231077024</v>
       </c>
       <c r="B205" s="0">
-        <v>6.1186922564846791</v>
+        <v>6.1186922564970949</v>
       </c>
     </row>
     <row r="206">
@@ -1728,7 +1716,7 @@
         <v>779.77064004742158</v>
       </c>
       <c r="B206" s="0">
-        <v>6.1174553905991162</v>
+        <v>6.1174553906066871</v>
       </c>
     </row>
     <row r="207">
@@ -1736,7 +1724,7 @@
         <v>779.76719501208606</v>
       </c>
       <c r="B207" s="0">
-        <v>5.6759386317215128</v>
+        <v>5.6759386317354643</v>
       </c>
     </row>
     <row r="208">
@@ -1744,7 +1732,7 @@
         <v>777.96798065164433</v>
       </c>
       <c r="B208" s="0">
-        <v>5.6063389052922403</v>
+        <v>5.6063389052754822</v>
       </c>
     </row>
     <row r="209">
@@ -1752,7 +1740,7 @@
         <v>777.96672978871482</v>
       </c>
       <c r="B209" s="0">
-        <v>6.0165451487445898</v>
+        <v>6.0165451487428898</v>
       </c>
     </row>
     <row r="210">
@@ -1760,7 +1748,7 @@
         <v>776.17070384700844</v>
       </c>
       <c r="B210" s="0">
-        <v>5.7320981146950682</v>
+        <v>5.7320981146855976</v>
       </c>
     </row>
     <row r="211">
@@ -1768,7 +1756,7 @@
         <v>776.16884380864724</v>
       </c>
       <c r="B211" s="0">
-        <v>5.8295269038400583</v>
+        <v>5.8295269038484454</v>
       </c>
     </row>
     <row r="212">
@@ -1776,7 +1764,7 @@
         <v>501.92318758476324</v>
       </c>
       <c r="B212" s="0">
-        <v>5.3778945719584463</v>
+        <v>5.3778945719798932</v>
       </c>
     </row>
     <row r="213">
@@ -1784,7 +1772,7 @@
         <v>503.72048700187725</v>
       </c>
       <c r="B213" s="0">
-        <v>5.4019007735936135</v>
+        <v>5.4019007736505511</v>
       </c>
     </row>
     <row r="214">
@@ -1792,7 +1780,7 @@
         <v>501.92430384398256</v>
       </c>
       <c r="B214" s="0">
-        <v>5.5798509226049609</v>
+        <v>5.5798509226024073</v>
       </c>
     </row>
     <row r="215">
@@ -1800,7 +1788,7 @@
         <v>503.72065036883498</v>
       </c>
       <c r="B215" s="0">
-        <v>5.4018524890901833</v>
+        <v>5.4018524891028319</v>
       </c>
     </row>
     <row r="216">
@@ -1808,7 +1796,7 @@
         <v>501.92323354381358</v>
       </c>
       <c r="B216" s="0">
-        <v>5.4206189584703788</v>
+        <v>5.420618958489281</v>
       </c>
     </row>
     <row r="217">
@@ -1816,7 +1804,7 @@
         <v>503.71979770638166</v>
       </c>
       <c r="B217" s="0">
-        <v>5.2449272968782514</v>
+        <v>5.244927296875626</v>
       </c>
     </row>
     <row r="218">
@@ -1824,7 +1812,7 @@
         <v>501.67256604436318</v>
       </c>
       <c r="B218" s="0">
-        <v>5.3933504829981027</v>
+        <v>5.3933504830058023</v>
       </c>
     </row>
     <row r="219">
@@ -1832,7 +1820,7 @@
         <v>503.47062217807036</v>
       </c>
       <c r="B219" s="0">
-        <v>5.2711677121629013</v>
+        <v>5.2711677121676308</v>
       </c>
     </row>
     <row r="220">
@@ -1840,7 +1828,7 @@
         <v>503.46717774659498</v>
       </c>
       <c r="B220" s="0">
-        <v>4.9618180728369854</v>
+        <v>4.9618180728077688</v>
       </c>
     </row>
     <row r="221">
@@ -1848,7 +1836,7 @@
         <v>501.67246921719936</v>
       </c>
       <c r="B221" s="0">
-        <v>5.4657207142338695</v>
+        <v>5.465720714293373</v>
       </c>
     </row>
     <row r="222">
@@ -1856,7 +1844,7 @@
         <v>501.67056482830787</v>
       </c>
       <c r="B222" s="0">
-        <v>5.4582782030028767</v>
+        <v>5.4582782030468184</v>
       </c>
     </row>
     <row r="223">
@@ -1864,7 +1852,7 @@
         <v>501.67040836636045</v>
       </c>
       <c r="B223" s="0">
-        <v>5.39970381994139</v>
+        <v>5.3997038199094458</v>
       </c>
     </row>
     <row r="224">
@@ -1872,7 +1860,7 @@
         <v>503.46860298798299</v>
       </c>
       <c r="B224" s="0">
-        <v>5.5207371154542111</v>
+        <v>5.5207371154392746</v>
       </c>
     </row>
     <row r="225">
@@ -1880,7 +1868,7 @@
         <v>501.67007416064178</v>
       </c>
       <c r="B225" s="0">
-        <v>5.3821958331051896</v>
+        <v>5.3821958330963859</v>
       </c>
     </row>
     <row r="226">
@@ -1888,7 +1876,7 @@
         <v>503.46831436736011</v>
       </c>
       <c r="B226" s="0">
-        <v>5.4314183765185184</v>
+        <v>5.4314183765735251</v>
       </c>
     </row>
     <row r="227">
@@ -1896,7 +1884,7 @@
         <v>503.46807055766533</v>
       </c>
       <c r="B227" s="0">
-        <v>5.3585748539093219</v>
+        <v>5.3585748539131295</v>
       </c>
     </row>
     <row r="228">
@@ -1904,7 +1892,7 @@
         <v>501.6795162137721</v>
       </c>
       <c r="B228" s="0">
-        <v>6.4432533202811291</v>
+        <v>6.4432533202220341</v>
       </c>
     </row>
     <row r="229">
@@ -1912,7 +1900,7 @@
         <v>499.87062939355053</v>
       </c>
       <c r="B229" s="0">
-        <v>5.0043032715505298</v>
+        <v>5.0043032715587232</v>
       </c>
     </row>
     <row r="230">
@@ -1920,7 +1908,7 @@
         <v>501.66992186634684</v>
       </c>
       <c r="B230" s="0">
-        <v>5.5964567164637566</v>
+        <v>5.5964567164777215</v>
       </c>
     </row>
     <row r="231">
@@ -1928,7 +1916,7 @@
         <v>501.66596050694591</v>
       </c>
       <c r="B231" s="0">
-        <v>5.6428937479769923</v>
+        <v>5.6428937479750578</v>
       </c>
     </row>
     <row r="232">
@@ -1936,7 +1924,7 @@
         <v>503.47329066969519</v>
       </c>
       <c r="B232" s="0">
-        <v>6.7298629549725097</v>
+        <v>6.7298629549333659</v>
       </c>
     </row>
     <row r="233">
@@ -1944,7 +1932,7 @@
         <v>501.66754768577653</v>
       </c>
       <c r="B233" s="0">
-        <v>5.4923708762984642</v>
+        <v>5.4923708762725063</v>
       </c>
     </row>
     <row r="234">
@@ -1952,7 +1940,7 @@
         <v>499.87220203404206</v>
       </c>
       <c r="B234" s="0">
-        <v>5.9341931710759352</v>
+        <v>5.934193171094611</v>
       </c>
     </row>
     <row r="235">
@@ -1960,7 +1948,7 @@
         <v>501.66828810484424</v>
       </c>
       <c r="B235" s="0">
-        <v>5.9169043336416145</v>
+        <v>5.9169043336354434</v>
       </c>
     </row>
     <row r="236">
@@ -1968,7 +1956,7 @@
         <v>501.66942848438896</v>
       </c>
       <c r="B236" s="0">
-        <v>6.0134272091649148</v>
+        <v>6.0134272091262888</v>
       </c>
     </row>
     <row r="237">
@@ -1976,7 +1964,7 @@
         <v>501.67230936863018</v>
       </c>
       <c r="B237" s="0">
-        <v>5.6725189986838114</v>
+        <v>5.6725189986876083</v>
       </c>
     </row>
     <row r="238">
@@ -1984,7 +1972,7 @@
         <v>501.6711485753716</v>
       </c>
       <c r="B238" s="0">
-        <v>5.6521217090810776</v>
+        <v>5.652121709106388</v>
       </c>
     </row>
     <row r="239">
@@ -1992,7 +1980,7 @@
         <v>501.66956918250082</v>
       </c>
       <c r="B239" s="0">
-        <v>5.5948904347972617</v>
+        <v>5.5948904347559596</v>
       </c>
     </row>
     <row r="240">
@@ -2000,7 +1988,7 @@
         <v>640.59256146233827</v>
       </c>
       <c r="B240" s="0">
-        <v>5.7715492243526567</v>
+        <v>5.7715492244091964</v>
       </c>
     </row>
     <row r="241">
@@ -2008,7 +1996,7 @@
         <v>640.59280063854101</v>
       </c>
       <c r="B241" s="0">
-        <v>5.7394498834851566</v>
+        <v>5.7394498835146974</v>
       </c>
     </row>
     <row r="242">
@@ -2016,7 +2004,7 @@
         <v>638.79370634175837</v>
       </c>
       <c r="B242" s="0">
-        <v>5.5011044982070612</v>
+        <v>5.501104498201741</v>
       </c>
     </row>
     <row r="243">
@@ -2024,7 +2012,7 @@
         <v>638.79364070489567</v>
       </c>
       <c r="B243" s="0">
-        <v>5.5092646710446038</v>
+        <v>5.5092646710409943</v>
       </c>
     </row>
     <row r="244">
@@ -2032,7 +2020,7 @@
         <v>638.79426713806481</v>
       </c>
       <c r="B244" s="0">
-        <v>5.4265902977597555</v>
+        <v>5.4265902977318312</v>
       </c>
     </row>
     <row r="245">
@@ -2040,7 +2028,7 @@
         <v>640.59113343903152</v>
       </c>
       <c r="B245" s="0">
-        <v>5.6711298676549227</v>
+        <v>5.6711298676270943</v>
       </c>
     </row>
     <row r="246">
@@ -2048,7 +2036,7 @@
         <v>638.79277210533894</v>
       </c>
       <c r="B246" s="0">
-        <v>5.7789993425115274</v>
+        <v>5.7789993425149762</v>
       </c>
     </row>
     <row r="247">
@@ -2056,7 +2044,7 @@
         <v>636.99675428604303</v>
       </c>
       <c r="B247" s="0">
-        <v>6.1804886773361227</v>
+        <v>6.1804886773487482</v>
       </c>
     </row>
     <row r="248">
@@ -2064,7 +2052,7 @@
         <v>636.9959904587987</v>
       </c>
       <c r="B248" s="0">
-        <v>5.8377725474749003</v>
+        <v>5.8377725474806725</v>
       </c>
     </row>
     <row r="249">
@@ -2072,15 +2060,15 @@
         <v>636.99489653405033</v>
       </c>
       <c r="B249" s="0">
-        <v>5.6435713608848106</v>
+        <v>5.6435713608957156</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0">
-        <v>638.80275579545503</v>
+        <v>638.8027557954548</v>
       </c>
       <c r="B250" s="0">
-        <v>7.8723049625028194</v>
+        <v>7.872304962397731</v>
       </c>
     </row>
     <row r="251">
@@ -2088,7 +2076,7 @@
         <v>642.38865090639899</v>
       </c>
       <c r="B251" s="0">
-        <v>5.9707437822222706</v>
+        <v>5.9707437822395919</v>
       </c>
     </row>
     <row r="252">
@@ -2096,7 +2084,7 @@
         <v>640.59270347946028</v>
       </c>
       <c r="B252" s="0">
-        <v>6.0683030117858445</v>
+        <v>6.068303011794189</v>
       </c>
     </row>
     <row r="253">
@@ -2104,7 +2092,7 @@
         <v>640.59550443499882</v>
       </c>
       <c r="B253" s="0">
-        <v>5.636508895398082</v>
+        <v>5.6365088954193316</v>
       </c>
     </row>
     <row r="254">
@@ -2112,7 +2100,7 @@
         <v>640.59243809711177</v>
       </c>
       <c r="B254" s="0">
-        <v>5.8575224303801061</v>
+        <v>5.8575224303717333</v>
       </c>
     </row>
     <row r="255">
@@ -2120,7 +2108,7 @@
         <v>640.59474782344512</v>
       </c>
       <c r="B255" s="0">
-        <v>5.8502842012484706</v>
+        <v>5.8502842012560077</v>
       </c>
     </row>
     <row r="256">
@@ -2128,7 +2116,7 @@
         <v>777.71665778683484</v>
       </c>
       <c r="B256" s="0">
-        <v>5.6976068478811683</v>
+        <v>5.6976068478546953</v>
       </c>
     </row>
     <row r="257">
@@ -2136,7 +2124,7 @@
         <v>777.71841374719054</v>
       </c>
       <c r="B257" s="0">
-        <v>6.3839157319957822</v>
+        <v>6.3839157319673152</v>
       </c>
     </row>
     <row r="258">
@@ -2144,7 +2132,7 @@
         <v>777.71580391042164</v>
       </c>
       <c r="B258" s="0">
-        <v>5.9094504599408202</v>
+        <v>5.9094504599161919</v>
       </c>
     </row>
     <row r="259">
@@ -2152,7 +2140,7 @@
         <v>779.51470090977762</v>
       </c>
       <c r="B259" s="0">
-        <v>6.076710449704759</v>
+        <v>6.0767104497074449</v>
       </c>
     </row>
     <row r="260">
@@ -2160,7 +2148,7 @@
         <v>777.71877401702875</v>
       </c>
       <c r="B260" s="0">
-        <v>6.5585635197443448</v>
+        <v>6.5585635197341352</v>
       </c>
     </row>
     <row r="261">
@@ -2168,7 +2156,7 @@
         <v>779.51469828976826</v>
       </c>
       <c r="B261" s="0">
-        <v>6.5465882170138618</v>
+        <v>6.5465882169719567</v>
       </c>
     </row>
     <row r="262">
@@ -2176,7 +2164,7 @@
         <v>775.91737093363042</v>
       </c>
       <c r="B262" s="0">
-        <v>5.783531080313165</v>
+        <v>5.7835310803136109</v>
       </c>
     </row>
     <row r="263">
@@ -2184,7 +2172,7 @@
         <v>777.71716796370481</v>
       </c>
       <c r="B263" s="0">
-        <v>6.4461217646722799</v>
+        <v>6.4461217646807594</v>
       </c>
     </row>
     <row r="264">
@@ -2192,15 +2180,15 @@
         <v>775.91813253171802</v>
       </c>
       <c r="B264" s="0">
-        <v>5.8914720201506556</v>
+        <v>5.8914720201702186</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="0">
-        <v>779.51490851294409</v>
+        <v>779.51490851294432</v>
       </c>
       <c r="B265" s="0">
-        <v>6.279410557871512</v>
+        <v>6.2794105578447903</v>
       </c>
     </row>
     <row r="266">
@@ -2208,7 +2196,7 @@
         <v>779.51525683659736</v>
       </c>
       <c r="B266" s="0">
-        <v>6.7599207025426722</v>
+        <v>6.7599207025056858</v>
       </c>
     </row>
     <row r="267">
@@ -2216,7 +2204,7 @@
         <v>777.71765735006977</v>
       </c>
       <c r="B267" s="0">
-        <v>5.9355742424420823</v>
+        <v>5.9355742424767755</v>
       </c>
     </row>
     <row r="268">
@@ -2224,15 +2212,15 @@
         <v>777.7182089155948</v>
       </c>
       <c r="B268" s="0">
-        <v>6.3858045694537342</v>
+        <v>6.3858045694475232</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="0">
-        <v>783.10988573585234</v>
+        <v>783.10988573585212</v>
       </c>
       <c r="B269" s="0">
-        <v>6.7188447885446552</v>
+        <v>6.7188447885983935</v>
       </c>
     </row>
     <row r="270">
@@ -2240,7 +2228,7 @@
         <v>777.76588196497175</v>
       </c>
       <c r="B270" s="0">
-        <v>6.9733606100418841</v>
+        <v>6.97336060999727</v>
       </c>
     </row>
     <row r="271">
@@ -2248,7 +2236,7 @@
         <v>779.80371449360143</v>
       </c>
       <c r="B271" s="0">
-        <v>6.6377035100619537</v>
+        <v>6.6377035101094171</v>
       </c>
     </row>
   </sheetData>

--- a/Doppler/270ch/3_Doppler270ch_determine_smile_and_instru/Doppler270ch_determine_smile_and_instru.xlsx
+++ b/Doppler/270ch/3_Doppler270ch_determine_smile_and_instru/Doppler270ch_determine_smile_and_instru.xlsx
@@ -67,8 +67,8 @@
   <dimension ref="A1:B271"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="true"/>
-    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="1" max="1" width="11.64453125" customWidth="true"/>
+    <col min="2" max="2" width="11.64453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -81,2162 +81,2162 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>237.32579837796641</v>
+        <v>237.32289988694379</v>
       </c>
       <c r="B2" s="0">
-        <v>6.0869975702899026</v>
+        <v>4.9643699439631481</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>237.32146161795197</v>
+        <v>237.31893681274505</v>
       </c>
       <c r="B3" s="0">
-        <v>6.7599802571960037</v>
+        <v>5.3879579789099656</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>235.52445497339443</v>
+        <v>235.52851555313975</v>
       </c>
       <c r="B4" s="0">
-        <v>6.1627855385915682</v>
+        <v>5.0138658396736249</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>239.11764594069109</v>
+        <v>239.12050110559005</v>
       </c>
       <c r="B5" s="0">
-        <v>5.8520681592958912</v>
+        <v>4.6244186591767749</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>235.51802686623023</v>
+        <v>235.51672029510291</v>
       </c>
       <c r="B6" s="0">
-        <v>5.719492852264211</v>
+        <v>4.337585755664632</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>237.31561021096718</v>
+        <v>237.314349557029</v>
       </c>
       <c r="B7" s="0">
-        <v>5.8709179010973136</v>
+        <v>4.7928427814684964</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>235.51857208289277</v>
+        <v>235.51695012751259</v>
       </c>
       <c r="B8" s="0">
-        <v>5.7315190102665587</v>
+        <v>4.3694592167213173</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>233.71981104332474</v>
+        <v>233.72171631212257</v>
       </c>
       <c r="B9" s="0">
-        <v>5.7680114767176596</v>
+        <v>4.1614268023924126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>235.5155862277129</v>
+        <v>235.51845894135124</v>
       </c>
       <c r="B10" s="0">
-        <v>5.7179088127748408</v>
+        <v>4.2596847559361857</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>235.51347776099794</v>
+        <v>235.51042661144652</v>
       </c>
       <c r="B11" s="0">
-        <v>5.5527989843141281</v>
+        <v>4.5044701366604567</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>233.71706579846557</v>
+        <v>233.71821033872368</v>
       </c>
       <c r="B12" s="0">
-        <v>5.4871379198672257</v>
+        <v>3.925749115457295</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>231.91601101096239</v>
+        <v>231.91468358116219</v>
       </c>
       <c r="B13" s="0">
-        <v>5.3877207457521665</v>
+        <v>4.4507908482702589</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>231.91406709098771</v>
+        <v>231.91632603614846</v>
       </c>
       <c r="B14" s="0">
-        <v>5.3013715420236682</v>
+        <v>3.814710604906804</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>230.11545640196152</v>
+        <v>230.11610948643204</v>
       </c>
       <c r="B15" s="0">
-        <v>5.3992376086197753</v>
+        <v>4.4577189457693382</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>231.9128351645237</v>
+        <v>231.91335709573809</v>
       </c>
       <c r="B16" s="0">
-        <v>5.1275132321943584</v>
+        <v>3.7964443028873256</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>231.91021106867549</v>
+        <v>231.91002225364821</v>
       </c>
       <c r="B17" s="0">
-        <v>5.2817202358392903</v>
+        <v>3.86951830563273</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>230.11295960937309</v>
+        <v>230.11514437599453</v>
       </c>
       <c r="B18" s="0">
-        <v>4.9617863111420277</v>
+        <v>3.6553494418119339</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>230.11344085977782</v>
+        <v>230.11533584346114</v>
       </c>
       <c r="B19" s="0">
-        <v>4.8439279802974173</v>
+        <v>3.5929260265508858</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>231.90953289555603</v>
+        <v>231.9097554756496</v>
       </c>
       <c r="B20" s="0">
-        <v>5.0745468402990541</v>
+        <v>3.5413373309474787</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>230.10957270244091</v>
+        <v>230.11147641489458</v>
       </c>
       <c r="B21" s="0">
-        <v>4.8062949281350598</v>
+        <v>3.5420976000259832</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>230.10834445449905</v>
+        <v>230.10859597719354</v>
       </c>
       <c r="B22" s="0">
-        <v>4.7697809759385015</v>
+        <v>3.5599292213542308</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>231.90586369085293</v>
+        <v>231.9060372992609</v>
       </c>
       <c r="B23" s="0">
-        <v>4.6903228140528128</v>
+        <v>3.4937642672711968</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>231.90526851767106</v>
+        <v>231.90585517883267</v>
       </c>
       <c r="B24" s="0">
-        <v>4.5905680716061523</v>
+        <v>3.496235335313719</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>228.30931547938678</v>
+        <v>228.31239235833516</v>
       </c>
       <c r="B25" s="0">
-        <v>4.7299072361222434</v>
+        <v>3.8367866792680685</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>230.10533585709595</v>
+        <v>230.1074599801517</v>
       </c>
       <c r="B26" s="0">
-        <v>4.3892627635179675</v>
+        <v>3.2222738016011641</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>228.30713562833159</v>
+        <v>228.31037091233145</v>
       </c>
       <c r="B27" s="0">
-        <v>5.0648721772434193</v>
+        <v>3.5329036135016638</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>226.50892759957685</v>
+        <v>226.50755643102968</v>
       </c>
       <c r="B28" s="0">
-        <v>4.4703809477896899</v>
+        <v>3.5505015419362431</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>228.30484080909184</v>
+        <v>228.30422323062203</v>
       </c>
       <c r="B29" s="0">
-        <v>5.2402549200010808</v>
+        <v>3.7339507173233248</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>226.50741369970967</v>
+        <v>226.50679920711707</v>
       </c>
       <c r="B30" s="0">
-        <v>4.3615448902012153</v>
+        <v>3.2363317635026179</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>228.30508287810824</v>
+        <v>228.30445151960339</v>
       </c>
       <c r="B31" s="0">
-        <v>4.3881196234535693</v>
+        <v>3.4364329822267612</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>226.5065334901368</v>
+        <v>226.50657283747171</v>
       </c>
       <c r="B32" s="0">
-        <v>4.32402287456505</v>
+        <v>3.4555955451428306</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>226.50477782126961</v>
+        <v>226.50532240131508</v>
       </c>
       <c r="B33" s="0">
-        <v>4.9999057766155621</v>
+        <v>4.468455549891023</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>228.30225725107937</v>
+        <v>228.30269589559794</v>
       </c>
       <c r="B34" s="0">
-        <v>4.2576680053147173</v>
+        <v>3.9870013889912417</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>226.50392070919372</v>
+        <v>226.50453666885858</v>
       </c>
       <c r="B35" s="0">
-        <v>4.262881705280086</v>
+        <v>3.9285302522724623</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>226.50285411899767</v>
+        <v>226.50300969338957</v>
       </c>
       <c r="B36" s="0">
-        <v>4.3197243152172646</v>
+        <v>4.0140741869903671</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>228.29965043958953</v>
+        <v>228.29982410429182</v>
       </c>
       <c r="B37" s="0">
-        <v>4.1250355851775149</v>
+        <v>3.834388928011168</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>226.50055228271367</v>
+        <v>226.50105159695283</v>
       </c>
       <c r="B38" s="0">
-        <v>4.5214045427876766</v>
+        <v>4.0691483066988745</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>228.29864651943842</v>
+        <v>228.29900736642492</v>
       </c>
       <c r="B39" s="0">
-        <v>4.1333346067958914</v>
+        <v>3.8654177565208707</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>224.70277109134065</v>
+        <v>224.70343164782287</v>
       </c>
       <c r="B40" s="0">
-        <v>4.3425983692157057</v>
+        <v>3.9513880557366821</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>224.70182049413802</v>
+        <v>224.70197268964057</v>
       </c>
       <c r="B41" s="0">
-        <v>4.2344146856258353</v>
+        <v>3.8782057070778309</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>226.49886645080301</v>
+        <v>226.49883171456133</v>
       </c>
       <c r="B42" s="0">
-        <v>4.354676856526309</v>
+        <v>3.3047415758340737</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>222.90327721739254</v>
+        <v>222.90368328529064</v>
       </c>
       <c r="B43" s="0">
-        <v>4.2663055359826645</v>
+        <v>3.194409498893469</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>226.4934919775784</v>
+        <v>226.48933381563131</v>
       </c>
       <c r="B44" s="0">
-        <v>10.352165799021838</v>
+        <v>8.2355901775103053</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>225.1711145232324</v>
+        <v>225.17152479692697</v>
       </c>
       <c r="B45" s="0">
-        <v>4.2813932469538223</v>
+        <v>3.9412607488832663</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>226.98678756863455</v>
+        <v>226.98792093348948</v>
       </c>
       <c r="B46" s="0">
-        <v>4.3591635513521458</v>
+        <v>3.4656309183409166</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>225.16964249432965</v>
+        <v>225.16896619348381</v>
       </c>
       <c r="B47" s="0">
-        <v>4.3900103231260195</v>
+        <v>3.2892071692225597</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>225.1656980524275</v>
+        <v>225.16509484810945</v>
       </c>
       <c r="B48" s="0">
-        <v>7.8387610463307755</v>
+        <v>5.171606161273159</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>225.17061077125084</v>
+        <v>225.17036462246824</v>
       </c>
       <c r="B49" s="0">
-        <v>4.444977452665551</v>
+        <v>4.1983820869465749</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>223.35253525271548</v>
+        <v>223.35444908963632</v>
       </c>
       <c r="B50" s="0">
-        <v>4.7898703318550346</v>
+        <v>3.6318276825521325</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>223.35106432596956</v>
+        <v>223.35146913353799</v>
       </c>
       <c r="B51" s="0">
-        <v>4.6598336634954229</v>
+        <v>3.3564684407458829</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>223.35040702673496</v>
+        <v>223.34932472882997</v>
       </c>
       <c r="B52" s="0">
-        <v>4.9547155755495442</v>
+        <v>4.0725904443270409</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>225.16798832155246</v>
+        <v>225.16824949081138</v>
       </c>
       <c r="B53" s="0">
-        <v>4.843423524893935</v>
+        <v>3.5492783094608114</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>221.53459642891698</v>
+        <v>221.53491187494967</v>
       </c>
       <c r="B54" s="0">
-        <v>4.8358132751099632</v>
+        <v>4.392367518101044</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>225.16718219622362</v>
+        <v>225.16557994459572</v>
       </c>
       <c r="B55" s="0">
-        <v>4.801005365961486</v>
+        <v>3.6048999629078717</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>225.16849366097915</v>
+        <v>225.1684669910768</v>
       </c>
       <c r="B56" s="0">
-        <v>5.1307644004112127</v>
+        <v>4.0108334267850569</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>223.3501441090059</v>
+        <v>223.3488172841129</v>
       </c>
       <c r="B57" s="0">
-        <v>5.2495996037110411</v>
+        <v>3.7924277604632644</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>225.16878904855082</v>
+        <v>225.16836005307857</v>
       </c>
       <c r="B58" s="0">
-        <v>5.1617792858056477</v>
+        <v>3.7308851567548373</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>225.16815331510043</v>
+        <v>225.16677837937232</v>
       </c>
       <c r="B59" s="0">
-        <v>4.9606856034410116</v>
+        <v>4.5133817285818525</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>223.35075262007319</v>
+        <v>223.35136304630646</v>
       </c>
       <c r="B60" s="0">
-        <v>5.2894599859405025</v>
+        <v>3.7754592445767856</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>223.35074092797061</v>
+        <v>223.34921779276272</v>
       </c>
       <c r="B61" s="0">
-        <v>5.5953949289749163</v>
+        <v>4.43003994819097</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>374.69984475021965</v>
+        <v>374.69988834597143</v>
       </c>
       <c r="B62" s="0">
-        <v>5.7798756180876998</v>
+        <v>5.5280923591914437</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>371.06706506215232</v>
+        <v>371.06694613799675</v>
       </c>
       <c r="B63" s="0">
-        <v>6.2725639629835603</v>
+        <v>5.956670244423413</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>372.88132790003681</v>
+        <v>372.88194147440186</v>
       </c>
       <c r="B64" s="0">
-        <v>6.1355239721562604</v>
+        <v>6.0582879763423074</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>374.69578342121486</v>
+        <v>374.69344881120708</v>
       </c>
       <c r="B65" s="0">
-        <v>6.0240596567102997</v>
+        <v>4.7895020829950727</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>372.88104795121092</v>
+        <v>372.88072532054946</v>
       </c>
       <c r="B66" s="0">
-        <v>5.71733186230857</v>
+        <v>5.5574774761280485</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>372.87695855875461</v>
+        <v>372.87679947563981</v>
       </c>
       <c r="B67" s="0">
-        <v>5.7943726607567481</v>
+        <v>5.4818691639910853</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>369.23932978624896</v>
+        <v>369.23917602574681</v>
       </c>
       <c r="B68" s="0">
-        <v>5.7914634413777337</v>
+        <v>5.4414798354368541</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>371.05415204384133</v>
+        <v>371.05335581256702</v>
       </c>
       <c r="B69" s="0">
-        <v>5.6130365933342086</v>
+        <v>5.2719795719403564</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>371.05388610368516</v>
+        <v>371.05227908405845</v>
       </c>
       <c r="B70" s="0">
-        <v>5.8549663828149763</v>
+        <v>4.7070856993188688</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>369.23627363765888</v>
+        <v>369.23766447080527</v>
       </c>
       <c r="B71" s="0">
-        <v>5.6796060153109016</v>
+        <v>4.0864262911531473</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>371.05178678809489</v>
+        <v>371.05364478072113</v>
       </c>
       <c r="B72" s="0">
-        <v>5.536327370564079</v>
+        <v>4.2116072372545155</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>369.23373531419281</v>
+        <v>369.23418441773299</v>
       </c>
       <c r="B73" s="0">
-        <v>5.4752134284591634</v>
+        <v>4.0808174329994582</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>369.23270844614319</v>
+        <v>369.23139686606316</v>
       </c>
       <c r="B74" s="0">
-        <v>5.5180620916908385</v>
+        <v>4.0531921878048385</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>371.05016058297019</v>
+        <v>371.0508775156818</v>
       </c>
       <c r="B75" s="0">
-        <v>5.3349980173600153</v>
+        <v>3.9538465275848083</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>369.23260284807463</v>
+        <v>369.23376277517104</v>
       </c>
       <c r="B76" s="0">
-        <v>5.4905714404891786</v>
+        <v>4.3590119638554246</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>371.04272885455032</v>
+        <v>371.04314374481635</v>
       </c>
       <c r="B77" s="0">
-        <v>5.3094483412474176</v>
+        <v>3.8560972152560442</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>369.22695800258055</v>
+        <v>369.22691309002892</v>
       </c>
       <c r="B78" s="0">
-        <v>5.2301206168938972</v>
+        <v>3.8933502898072203</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>367.41017452641233</v>
+        <v>367.41038441546777</v>
       </c>
       <c r="B79" s="0">
-        <v>5.3682306851575072</v>
+        <v>4.946445753486632</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>369.22738837214399</v>
+        <v>369.227378227641</v>
       </c>
       <c r="B80" s="0">
-        <v>5.1708676053211038</v>
+        <v>4.6940837309391634</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>369.2232780448627</v>
+        <v>369.2230904336385</v>
       </c>
       <c r="B81" s="0">
-        <v>5.1301963838843365</v>
+        <v>3.7867389103947446</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>367.4077794019712</v>
+        <v>367.40757738717309</v>
       </c>
       <c r="B82" s="0">
-        <v>5.2146467180387344</v>
+        <v>4.770875004779688</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>367.40674235112965</v>
+        <v>367.4076716288821</v>
       </c>
       <c r="B83" s="0">
-        <v>5.2340266715238464</v>
+        <v>4.7755191575385485</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>369.22194020482618</v>
+        <v>369.22228697358798</v>
       </c>
       <c r="B84" s="0">
-        <v>5.0129618655113832</v>
+        <v>4.6463700906796293</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>367.40478033651561</v>
+        <v>367.40517561568561</v>
       </c>
       <c r="B85" s="0">
-        <v>5.0549288776342944</v>
+        <v>4.6325263020241589</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>365.58948435285913</v>
+        <v>365.5908463503913</v>
       </c>
       <c r="B86" s="0">
-        <v>5.6687383591629121</v>
+        <v>5.0849784742980937</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>367.40329313058317</v>
+        <v>367.40318313396358</v>
       </c>
       <c r="B87" s="0">
-        <v>4.9871832081717757</v>
+        <v>4.3686186185364368</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>365.58623327378052</v>
+        <v>365.58633310994458</v>
       </c>
       <c r="B88" s="0">
-        <v>4.9872093428085913</v>
+        <v>4.817858851153102</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>365.58440591936085</v>
+        <v>365.58446579448662</v>
       </c>
       <c r="B89" s="0">
-        <v>4.9690535909500833</v>
+        <v>4.8675838108204488</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>365.58396758224353</v>
+        <v>365.58392688089646</v>
       </c>
       <c r="B90" s="0">
-        <v>4.5544159825327775</v>
+        <v>4.2754210945792783</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>367.40020667366446</v>
+        <v>367.39979267436968</v>
       </c>
       <c r="B91" s="0">
-        <v>5.2594846281804477</v>
+        <v>4.835112453654971</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>367.40139110980897</v>
+        <v>367.40136530200175</v>
       </c>
       <c r="B92" s="0">
-        <v>4.8418437133031329</v>
+        <v>4.8010559566702975</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>363.76594273370461</v>
+        <v>363.76625188447383</v>
       </c>
       <c r="B93" s="0">
-        <v>4.939878577911899</v>
+        <v>4.7927446581541213</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>365.58236343472174</v>
+        <v>365.58236954965844</v>
       </c>
       <c r="B94" s="0">
-        <v>4.8403399296769569</v>
+        <v>4.7721301284393416</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>367.40224590316336</v>
+        <v>367.40214108426642</v>
       </c>
       <c r="B95" s="0">
-        <v>5.6398803681347403</v>
+        <v>5.1886367274113612</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>365.5826097198036</v>
+        <v>365.58244696357349</v>
       </c>
       <c r="B96" s="0">
-        <v>5.2618242816029577</v>
+        <v>4.8167492239573937</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>365.58093788747908</v>
+        <v>365.58038176652406</v>
       </c>
       <c r="B97" s="0">
-        <v>4.9861190707874963</v>
+        <v>4.5606567608551432</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>365.5792770093027</v>
+        <v>365.57920050575751</v>
       </c>
       <c r="B98" s="0">
-        <v>4.8824420347590323</v>
+        <v>4.5353480418072971</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>363.76472844502257</v>
+        <v>363.76505776310012</v>
       </c>
       <c r="B99" s="0">
-        <v>5.210315194216661</v>
+        <v>5.0822424763534837</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>367.3983490349101</v>
+        <v>367.39842430064652</v>
       </c>
       <c r="B100" s="0">
-        <v>5.1321809606465898</v>
+        <v>4.7230474870631971</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>365.57841340564937</v>
+        <v>365.57858244803242</v>
       </c>
       <c r="B101" s="0">
-        <v>4.9744376049555594</v>
+        <v>4.6059516060159105</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>365.57785889245918</v>
+        <v>365.57833290658289</v>
       </c>
       <c r="B102" s="0">
-        <v>5.0601008229897095</v>
+        <v>4.8458474656914099</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>367.39231789135863</v>
+        <v>367.39292500306203</v>
       </c>
       <c r="B103" s="0">
-        <v>4.5227988951094025</v>
+        <v>4.2524374270592045</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>365.57673812087808</v>
+        <v>365.57632759810974</v>
       </c>
       <c r="B104" s="0">
-        <v>5.1700891707158023</v>
+        <v>4.8548850036569586</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>363.75948614872357</v>
+        <v>363.75932435255277</v>
       </c>
       <c r="B105" s="0">
-        <v>5.2453316589865198</v>
+        <v>4.8226696422193047</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>363.7588659918805</v>
+        <v>363.75870420208969</v>
       </c>
       <c r="B106" s="0">
-        <v>5.1998829896370671</v>
+        <v>4.8301117145879058</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>361.93987459553398</v>
+        <v>361.94118286113485</v>
       </c>
       <c r="B107" s="0">
-        <v>4.8524400350280139</v>
+        <v>3.5506780162096923</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>360.12166594511507</v>
+        <v>360.12383509834649</v>
       </c>
       <c r="B108" s="0">
-        <v>5.0418770610871402</v>
+        <v>3.659759678402517</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>363.75983239870004</v>
+        <v>363.76017783598968</v>
       </c>
       <c r="B109" s="0">
-        <v>5.2332657241955474</v>
+        <v>4.8029193147980793</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>361.94178438087727</v>
+        <v>361.9409747499177</v>
       </c>
       <c r="B110" s="0">
-        <v>5.3182965598521976</v>
+        <v>4.9773473162330859</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>361.9415331593641</v>
+        <v>361.94108129986137</v>
       </c>
       <c r="B111" s="0">
-        <v>5.8079307306628234</v>
+        <v>5.5576978685006733</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>361.93997526177907</v>
+        <v>361.94034379182187</v>
       </c>
       <c r="B112" s="0">
-        <v>5.1825236064632501</v>
+        <v>4.7043690665826077</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>360.12387770573605</v>
+        <v>360.12407983309197</v>
       </c>
       <c r="B113" s="0">
-        <v>5.8859040578243116</v>
+        <v>5.3824288502322517</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>361.93686273769492</v>
+        <v>361.9374364405154</v>
       </c>
       <c r="B114" s="0">
-        <v>5.1495823375202532</v>
+        <v>3.8235203885465743</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>365.57297654146339</v>
+        <v>365.57244708022665</v>
       </c>
       <c r="B115" s="0">
-        <v>5.500053109009948</v>
+        <v>5.0777680157041116</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>363.75803496553783</v>
+        <v>363.75795397766808</v>
       </c>
       <c r="B116" s="0">
-        <v>5.6533462198992224</v>
+        <v>5.0975956698393547</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>361.94298885984392</v>
+        <v>361.9428316177715</v>
       </c>
       <c r="B117" s="0">
-        <v>5.6849071742165522</v>
+        <v>5.4299406049575181</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>363.76037477542195</v>
+        <v>363.76058888183468</v>
       </c>
       <c r="B118" s="0">
-        <v>5.7589793705422494</v>
+        <v>5.298666030710832</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>363.75986432157845</v>
+        <v>363.75927660215791</v>
       </c>
       <c r="B119" s="0">
-        <v>5.6220556573880049</v>
+        <v>5.097825325609187</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>365.5770942480159</v>
+        <v>365.57655388338219</v>
       </c>
       <c r="B120" s="0">
-        <v>5.4706787669083017</v>
+        <v>4.9954625738463054</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>361.94060915156695</v>
+        <v>361.94091211629143</v>
       </c>
       <c r="B121" s="0">
-        <v>5.3551671702912289</v>
+        <v>4.9046464065570881</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>515.10480172481221</v>
+        <v>515.10477007040402</v>
       </c>
       <c r="B122" s="0">
-        <v>6.1445441215604948</v>
+        <v>6.1278236064479765</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>511.46765276464544</v>
+        <v>511.46748091675033</v>
       </c>
       <c r="B123" s="0">
-        <v>6.0744617923365931</v>
+        <v>6.0205552355261283</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>511.4669010778382</v>
+        <v>511.46688739993249</v>
       </c>
       <c r="B124" s="0">
-        <v>5.8475021019441371</v>
+        <v>5.8200730187767622</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>511.46483277812126</v>
+        <v>511.46473867353586</v>
       </c>
       <c r="B125" s="0">
-        <v>5.9062229073693153</v>
+        <v>5.8731304461877496</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>511.46134288317205</v>
+        <v>511.46123556946452</v>
       </c>
       <c r="B126" s="0">
-        <v>5.7822011506534148</v>
+        <v>5.7417761144541366</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>511.46271658022931</v>
+        <v>511.46263839362894</v>
       </c>
       <c r="B127" s="0">
-        <v>5.9040918271719951</v>
+        <v>5.8653188922528656</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>509.64424726973732</v>
+        <v>509.64420542850553</v>
       </c>
       <c r="B128" s="0">
-        <v>5.969281419562944</v>
+        <v>5.9304661680734654</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>507.82251106330614</v>
+        <v>507.82234147003885</v>
       </c>
       <c r="B129" s="0">
-        <v>6.0785929344310752</v>
+        <v>6.0198794169393546</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>509.64015676978067</v>
+        <v>509.64009830053647</v>
       </c>
       <c r="B130" s="0">
-        <v>5.7763422872296601</v>
+        <v>5.7118589717702113</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>509.63980252673218</v>
+        <v>509.639767976906</v>
       </c>
       <c r="B131" s="0">
-        <v>5.8778744708918387</v>
+        <v>5.6674189167052917</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>509.63927722258984</v>
+        <v>509.63869203614593</v>
       </c>
       <c r="B132" s="0">
-        <v>5.8900220000432029</v>
+        <v>5.4518930627974109</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>509.63809188696098</v>
+        <v>509.63831942382456</v>
       </c>
       <c r="B133" s="0">
-        <v>5.8852139951912941</v>
+        <v>5.672872871381899</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>507.82044215047949</v>
+        <v>507.82038942541919</v>
       </c>
       <c r="B134" s="0">
-        <v>5.8148516969519903</v>
+        <v>5.7813837480304837</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>509.63534153553076</v>
+        <v>509.63528387884355</v>
       </c>
       <c r="B135" s="0">
-        <v>5.7067577667562244</v>
+        <v>5.6676261658640392</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>507.81706577895432</v>
+        <v>507.81704750887968</v>
       </c>
       <c r="B136" s="0">
-        <v>5.581205923273</v>
+        <v>5.536975204529381</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>505.99770154874057</v>
+        <v>505.99764963956386</v>
       </c>
       <c r="B137" s="0">
-        <v>5.4790088696167381</v>
+        <v>5.4443069964093862</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>507.42994470830195</v>
+        <v>507.42993373843512</v>
       </c>
       <c r="B138" s="0">
-        <v>5.828022970536467</v>
+        <v>5.800701319753367</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>503.79391923631533</v>
+        <v>503.79386162401886</v>
       </c>
       <c r="B139" s="0">
-        <v>5.7462403154466113</v>
+        <v>5.714836392327717</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>505.6092845986733</v>
+        <v>505.60919137321821</v>
       </c>
       <c r="B140" s="0">
-        <v>5.690055820989433</v>
+        <v>5.6414692953383341</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>507.4259247048343</v>
+        <v>507.42590206002308</v>
       </c>
       <c r="B141" s="0">
-        <v>5.4505521913436299</v>
+        <v>5.4298320240591016</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>505.6073889492186</v>
+        <v>505.60734829970977</v>
       </c>
       <c r="B142" s="0">
-        <v>5.4714257683120007</v>
+        <v>5.43767889530797</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>505.60713743009535</v>
+        <v>505.60711604507321</v>
       </c>
       <c r="B143" s="0">
-        <v>5.5561214400789858</v>
+        <v>5.5171842017909416</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>503.78908724623773</v>
+        <v>503.78903218275343</v>
       </c>
       <c r="B144" s="0">
-        <v>5.5383593004526936</v>
+        <v>5.4991351914330311</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>503.78861184228151</v>
+        <v>503.78860736876595</v>
       </c>
       <c r="B145" s="0">
-        <v>5.3146106205356665</v>
+        <v>5.2933085876628372</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>505.60432985684884</v>
+        <v>505.60432431490665</v>
       </c>
       <c r="B146" s="0">
-        <v>5.4819254653737461</v>
+        <v>5.4777009974105697</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
-        <v>503.78677445327128</v>
+        <v>503.78677548982603</v>
       </c>
       <c r="B147" s="0">
-        <v>5.4811575786394382</v>
+        <v>5.4785654077506987</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>503.78489596972361</v>
+        <v>503.78489553651082</v>
       </c>
       <c r="B148" s="0">
-        <v>5.3291813206100009</v>
+        <v>5.3276630206284672</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>503.78375951234887</v>
+        <v>503.78375181011586</v>
       </c>
       <c r="B149" s="0">
-        <v>5.3872203735398596</v>
+        <v>5.3825296708727963</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
-        <v>503.7829278961176</v>
+        <v>503.78292919408307</v>
       </c>
       <c r="B150" s="0">
-        <v>5.2425747785733892</v>
+        <v>5.2374687989678925</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
-        <v>501.96482859112973</v>
+        <v>501.96483758484294</v>
       </c>
       <c r="B151" s="0">
-        <v>5.1413708639622611</v>
+        <v>5.135496058233298</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0">
-        <v>649.67044848296143</v>
+        <v>649.67044651095341</v>
       </c>
       <c r="B152" s="0">
-        <v>5.8327627476979362</v>
+        <v>5.8305869742637224</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
-        <v>649.67028565427142</v>
+        <v>649.670278143877</v>
       </c>
       <c r="B153" s="0">
-        <v>5.7919899525513072</v>
+        <v>5.7889929199501999</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
-        <v>651.48445055304649</v>
+        <v>651.48439854997343</v>
       </c>
       <c r="B154" s="0">
-        <v>5.9182770618802181</v>
+        <v>5.8962133731322375</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
-        <v>651.48991934678463</v>
+        <v>651.4900000031447</v>
       </c>
       <c r="B155" s="0">
-        <v>7.4327272049101127</v>
+        <v>7.4166306244106019</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
-        <v>649.66472348634795</v>
+        <v>649.66461914238641</v>
       </c>
       <c r="B156" s="0">
-        <v>5.9178623728751036</v>
+        <v>5.874254166098944</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
-        <v>646.03098671670966</v>
+        <v>646.03098628121495</v>
       </c>
       <c r="B157" s="0">
-        <v>6.2076929933066731</v>
+        <v>6.1744548376868238</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
-        <v>647.84635528910837</v>
+        <v>647.84585442347486</v>
       </c>
       <c r="B158" s="0">
-        <v>5.8486026887671407</v>
+        <v>5.3844400214513168</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
-        <v>646.02846505095874</v>
+        <v>646.02831772874936</v>
       </c>
       <c r="B159" s="0">
-        <v>5.9782212421256311</v>
+        <v>5.5993759876388829</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
-        <v>649.66129453791666</v>
+        <v>649.66056684738999</v>
       </c>
       <c r="B160" s="0">
-        <v>5.9928580459157583</v>
+        <v>5.5741265187327267</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
-        <v>647.83906875552282</v>
+        <v>647.83912926495657</v>
       </c>
       <c r="B161" s="0">
-        <v>6.2935168645309396</v>
+        <v>5.9798640870816255</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
-        <v>646.02267582378488</v>
+        <v>646.02227351660611</v>
       </c>
       <c r="B162" s="0">
-        <v>5.968284350401043</v>
+        <v>5.5315020670783035</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
-        <v>644.20327309949823</v>
+        <v>644.20335239584244</v>
       </c>
       <c r="B163" s="0">
-        <v>5.8272035396232189</v>
+        <v>5.3483090619170595</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
-        <v>646.02217781633419</v>
+        <v>646.02127481195146</v>
       </c>
       <c r="B164" s="0">
-        <v>6.0301317861088144</v>
+        <v>5.7763733430483839</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0">
-        <v>644.20317942531562</v>
+        <v>644.20318027235419</v>
       </c>
       <c r="B165" s="0">
-        <v>6.3149343380075242</v>
+        <v>5.9350326866199481</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
-        <v>646.01725859433338</v>
+        <v>646.015503615792</v>
       </c>
       <c r="B166" s="0">
-        <v>6.3523123946288615</v>
+        <v>5.5832387892742812</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0">
-        <v>646.01639258389616</v>
+        <v>646.01561036868168</v>
       </c>
       <c r="B167" s="0">
-        <v>5.7319663663945617</v>
+        <v>5.3258676797501705</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0">
-        <v>647.83297266286093</v>
+        <v>647.83306503708616</v>
       </c>
       <c r="B168" s="0">
-        <v>5.9877848190007885</v>
+        <v>5.4734290845788154</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
-        <v>644.19485748009799</v>
+        <v>644.19437221178794</v>
       </c>
       <c r="B169" s="0">
-        <v>5.6698850377022092</v>
+        <v>5.1591104998106649</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0">
-        <v>644.19519171356558</v>
+        <v>644.1945143128786</v>
       </c>
       <c r="B170" s="0">
-        <v>5.9592702097420762</v>
+        <v>5.4844235896330211</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0">
-        <v>644.19499121545925</v>
+        <v>644.19532350712723</v>
       </c>
       <c r="B171" s="0">
-        <v>5.9828394058131567</v>
+        <v>5.5938235272218666</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0">
-        <v>646.00983830359871</v>
+        <v>646.00908188643928</v>
       </c>
       <c r="B172" s="0">
-        <v>6.0442070657177949</v>
+        <v>5.6953309384279542</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0">
-        <v>644.19486152409252</v>
+        <v>644.1950709784511</v>
       </c>
       <c r="B173" s="0">
-        <v>6.4117320297473421</v>
+        <v>6.1047855787495573</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
-        <v>646.00696942294064</v>
+        <v>646.00651936256588</v>
       </c>
       <c r="B174" s="0">
-        <v>5.7279289039939671</v>
+        <v>5.5967965162268856</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0">
-        <v>640.55645740527268</v>
+        <v>640.55533643602428</v>
       </c>
       <c r="B175" s="0">
-        <v>6.2878815286638696</v>
+        <v>5.8144438328617181</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0">
-        <v>642.37222899387314</v>
+        <v>642.37125378051508</v>
       </c>
       <c r="B176" s="0">
-        <v>6.0145800962684941</v>
+        <v>5.5703774527315959</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0">
-        <v>642.37145577301555</v>
+        <v>642.37065587013342</v>
       </c>
       <c r="B177" s="0">
-        <v>6.1741329298614023</v>
+        <v>6.0252805143153481</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0">
-        <v>640.55668558504715</v>
+        <v>640.55696763785443</v>
       </c>
       <c r="B178" s="0">
-        <v>6.3378805717001718</v>
+        <v>6.2055923312285577</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0">
-        <v>640.55138854120821</v>
+        <v>640.55068870463163</v>
       </c>
       <c r="B179" s="0">
-        <v>5.9453626390061212</v>
+        <v>5.4993521373234895</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0">
-        <v>640.55044856164466</v>
+        <v>640.55087092732572</v>
       </c>
       <c r="B180" s="0">
-        <v>5.8256564085714686</v>
+        <v>5.7622211858040639</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0">
-        <v>638.73667887959607</v>
+        <v>638.73690705515844</v>
       </c>
       <c r="B181" s="0">
-        <v>6.2689942543233856</v>
+        <v>6.1558707579835241</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0">
-        <v>790.07518198956711</v>
+        <v>790.07472019880413</v>
       </c>
       <c r="B182" s="0">
-        <v>5.868284067465428</v>
+        <v>5.4301436565810803</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0">
-        <v>786.99422281605973</v>
+        <v>786.99399736720136</v>
       </c>
       <c r="B183" s="0">
-        <v>6.6417848047853898</v>
+        <v>6.0986335039377471</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0">
-        <v>788.78601516818742</v>
+        <v>788.78518445056477</v>
       </c>
       <c r="B184" s="0">
-        <v>5.8959589685499818</v>
+        <v>5.4047145396880829</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0">
-        <v>785.19084572402346</v>
+        <v>785.19002038718475</v>
       </c>
       <c r="B185" s="0">
-        <v>6.0692026393470719</v>
+        <v>5.6704525417213949</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0">
-        <v>786.98735015781847</v>
+        <v>786.98674952661793</v>
       </c>
       <c r="B186" s="0">
-        <v>6.3211556053082534</v>
+        <v>5.9399884591139758</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0">
-        <v>788.7808667782482</v>
+        <v>788.78035010072279</v>
       </c>
       <c r="B187" s="0">
-        <v>6.213146893070312</v>
+        <v>5.5717261982890065</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0">
-        <v>785.18468029105463</v>
+        <v>785.18343286375978</v>
       </c>
       <c r="B188" s="0">
-        <v>5.9610703800077678</v>
+        <v>5.5264000602910235</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0">
-        <v>783.3857390957595</v>
+        <v>783.3850995450872</v>
       </c>
       <c r="B189" s="0">
-        <v>6.3046450913997782</v>
+        <v>5.8849250039034269</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0">
-        <v>786.97967831607491</v>
+        <v>786.97915538208747</v>
       </c>
       <c r="B190" s="0">
-        <v>6.0759251829514831</v>
+        <v>5.5653360722486998</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0">
-        <v>785.17936759990278</v>
+        <v>785.17949448131765</v>
       </c>
       <c r="B191" s="0">
-        <v>6.3053439014017698</v>
+        <v>5.8728578857256517</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0">
-        <v>783.38368029881019</v>
+        <v>783.38314263144764</v>
       </c>
       <c r="B192" s="0">
-        <v>5.8594331037149683</v>
+        <v>4.4246756521274673</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0">
-        <v>781.57937383392243</v>
+        <v>781.57879160113123</v>
       </c>
       <c r="B193" s="0">
-        <v>5.7789053884389201</v>
+        <v>5.3361220625251242</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0">
-        <v>785.17638039829797</v>
+        <v>785.17415722077101</v>
       </c>
       <c r="B194" s="0">
-        <v>6.3732372920608391</v>
+        <v>4.7969080952864065</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0">
-        <v>781.57881002329111</v>
+        <v>781.57573461042568</v>
       </c>
       <c r="B195" s="0">
-        <v>6.0567741243833471</v>
+        <v>4.419554929436349</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0">
-        <v>781.57706983367291</v>
+        <v>781.57757881635587</v>
       </c>
       <c r="B196" s="0">
-        <v>5.6608771591823039</v>
+        <v>4.1579824653659641</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0">
-        <v>781.57618354788872</v>
+        <v>781.57491006021371</v>
       </c>
       <c r="B197" s="0">
-        <v>6.4368731159715757</v>
+        <v>4.7955724672096256</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0">
-        <v>785.16880195006922</v>
+        <v>785.1691591311959</v>
       </c>
       <c r="B198" s="0">
-        <v>6.5677424234646393</v>
+        <v>4.9458043925026578</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0">
-        <v>781.57285837837242</v>
+        <v>781.57388339992792</v>
       </c>
       <c r="B199" s="0">
-        <v>6.1686938441596944</v>
+        <v>4.451362239680674</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0">
-        <v>779.77398162530005</v>
+        <v>779.77100858474694</v>
       </c>
       <c r="B200" s="0">
-        <v>5.8843566356158465</v>
+        <v>4.494513647267695</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0">
-        <v>781.56918911626133</v>
+        <v>781.56762522026349</v>
       </c>
       <c r="B201" s="0">
-        <v>5.8495402488761155</v>
+        <v>4.3227029577316891</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0">
-        <v>779.77262383960954</v>
+        <v>779.77300102541665</v>
       </c>
       <c r="B202" s="0">
-        <v>5.8793542087428152</v>
+        <v>4.177806022416636</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0">
-        <v>779.77288190632942</v>
+        <v>779.77287415300987</v>
       </c>
       <c r="B203" s="0">
-        <v>6.2567037359476201</v>
+        <v>4.674685975286307</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0">
-        <v>777.97357335873528</v>
+        <v>777.97253525297435</v>
       </c>
       <c r="B204" s="0">
-        <v>6.117447926501594</v>
+        <v>4.6701052501418863</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0">
-        <v>779.77157231077024</v>
+        <v>779.77101331580582</v>
       </c>
       <c r="B205" s="0">
-        <v>6.1186922564970949</v>
+        <v>5.6744886662821905</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0">
-        <v>779.77064004742158</v>
+        <v>779.77016512954731</v>
       </c>
       <c r="B206" s="0">
-        <v>6.1174553906066871</v>
+        <v>5.634917766181549</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0">
-        <v>779.76719501208606</v>
+        <v>779.76628532516145</v>
       </c>
       <c r="B207" s="0">
-        <v>5.6759386317354643</v>
+        <v>4.500413597400966</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0">
-        <v>777.96798065164433</v>
+        <v>777.9678078619653</v>
       </c>
       <c r="B208" s="0">
-        <v>5.6063389052754822</v>
+        <v>5.2209079521794948</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0">
-        <v>777.96672978871482</v>
+        <v>777.96619196534778</v>
       </c>
       <c r="B209" s="0">
-        <v>6.0165451487428898</v>
+        <v>5.6556747947396717</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0">
-        <v>776.17070384700844</v>
+        <v>776.17068400872165</v>
       </c>
       <c r="B210" s="0">
-        <v>5.7320981146855976</v>
+        <v>5.5787018071626377</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0">
-        <v>776.16884380864724</v>
+        <v>776.16928258199152</v>
       </c>
       <c r="B211" s="0">
-        <v>5.8295269038484454</v>
+        <v>5.5515283533365141</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0">
-        <v>501.92318758476324</v>
+        <v>501.92321807453789</v>
       </c>
       <c r="B212" s="0">
-        <v>5.3778945719798932</v>
+        <v>5.3353629011198453</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0">
-        <v>503.72048700187725</v>
+        <v>503.72052824055061</v>
       </c>
       <c r="B213" s="0">
-        <v>5.4019007736505511</v>
+        <v>5.3478902749625785</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0">
-        <v>501.92430384398256</v>
+        <v>501.92431217034493</v>
       </c>
       <c r="B214" s="0">
-        <v>5.5798509226024073</v>
+        <v>5.5640281493403965</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0">
-        <v>503.72065036883498</v>
+        <v>503.72068347762058</v>
       </c>
       <c r="B215" s="0">
-        <v>5.4018524891028319</v>
+        <v>5.3600200398892301</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0">
-        <v>501.92323354381358</v>
+        <v>501.92352021398108</v>
       </c>
       <c r="B216" s="0">
-        <v>5.420618958489281</v>
+        <v>5.0815188617981839</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0">
-        <v>503.71979770638166</v>
+        <v>503.72018570873217</v>
       </c>
       <c r="B217" s="0">
-        <v>5.244927296875626</v>
+        <v>4.8970083588951718</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0">
-        <v>501.67256604436318</v>
+        <v>501.67247469560141</v>
       </c>
       <c r="B218" s="0">
-        <v>5.3933504830058023</v>
+        <v>4.9426806454525272</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0">
-        <v>503.47062217807036</v>
+        <v>503.47091819412776</v>
       </c>
       <c r="B219" s="0">
-        <v>5.2711677121676308</v>
+        <v>5.0744656851522709</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0">
-        <v>503.46717774659498</v>
+        <v>503.46705736640808</v>
       </c>
       <c r="B220" s="0">
-        <v>4.9618180728077688</v>
+        <v>4.7268621448233059</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0">
-        <v>501.67246921719936</v>
+        <v>501.67238689364808</v>
       </c>
       <c r="B221" s="0">
-        <v>5.465720714293373</v>
+        <v>4.9725748566691399</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0">
-        <v>501.67056482830787</v>
+        <v>501.67077088288909</v>
       </c>
       <c r="B222" s="0">
-        <v>5.4582782030468184</v>
+        <v>5.1604545223114018</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0">
-        <v>501.67040836636045</v>
+        <v>501.67066799148085</v>
       </c>
       <c r="B223" s="0">
-        <v>5.3997038199094458</v>
+        <v>4.9582942973866526</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0">
-        <v>503.46860298798299</v>
+        <v>503.46875748815444</v>
       </c>
       <c r="B224" s="0">
-        <v>5.5207371154392746</v>
+        <v>5.2389385763094669</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0">
-        <v>501.67007416064178</v>
+        <v>501.67045202657994</v>
       </c>
       <c r="B225" s="0">
-        <v>5.3821958330963859</v>
+        <v>5.0067162747631055</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0">
-        <v>503.46831436736011</v>
+        <v>503.4684210137126</v>
       </c>
       <c r="B226" s="0">
-        <v>5.4314183765735251</v>
+        <v>5.2128304421955631</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0">
-        <v>503.46807055766533</v>
+        <v>503.4683744326876</v>
       </c>
       <c r="B227" s="0">
-        <v>5.3585748539131295</v>
+        <v>4.9313987664711876</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0">
-        <v>501.6795162137721</v>
+        <v>501.67990497503854</v>
       </c>
       <c r="B228" s="0">
-        <v>6.4432533202220341</v>
+        <v>5.8615725526150104</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0">
-        <v>499.87062939355053</v>
+        <v>499.87073489595082</v>
       </c>
       <c r="B229" s="0">
-        <v>5.0043032715587232</v>
+        <v>4.9096886475258561</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0">
-        <v>501.66992186634684</v>
+        <v>501.67035507736466</v>
       </c>
       <c r="B230" s="0">
-        <v>5.5964567164777215</v>
+        <v>5.2342617212343239</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0">
-        <v>501.66596050694591</v>
+        <v>501.66508545012437</v>
       </c>
       <c r="B231" s="0">
-        <v>5.6428937479750578</v>
+        <v>5.0393554673319647</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0">
-        <v>503.47329066969519</v>
+        <v>503.47439035652633</v>
       </c>
       <c r="B232" s="0">
-        <v>6.7298629549333659</v>
+        <v>6.3423342994396812</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0">
-        <v>501.66754768577653</v>
+        <v>501.66802485652613</v>
       </c>
       <c r="B233" s="0">
-        <v>5.4923708762725063</v>
+        <v>5.3514644633116886</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0">
-        <v>499.87220203404206</v>
+        <v>499.87284615379792</v>
       </c>
       <c r="B234" s="0">
-        <v>5.934193171094611</v>
+        <v>5.4726610973687393</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0">
-        <v>501.66828810484424</v>
+        <v>501.66826298818671</v>
       </c>
       <c r="B235" s="0">
-        <v>5.9169043336354434</v>
+        <v>5.5268873368473921</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0">
-        <v>501.66942848438896</v>
+        <v>501.66900790542468</v>
       </c>
       <c r="B236" s="0">
-        <v>6.0134272091262888</v>
+        <v>5.6011375418679208</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0">
-        <v>501.67230936863018</v>
+        <v>501.67218092353369</v>
       </c>
       <c r="B237" s="0">
-        <v>5.6725189986876083</v>
+        <v>5.2783897503673929</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0">
-        <v>501.6711485753716</v>
+        <v>501.67121655583765</v>
       </c>
       <c r="B238" s="0">
-        <v>5.652121709106388</v>
+        <v>5.2863509752789675</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0">
-        <v>501.66956918250082</v>
+        <v>501.6687448874485</v>
       </c>
       <c r="B239" s="0">
-        <v>5.5948904347559596</v>
+        <v>5.3469410615559445</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0">
-        <v>640.59256146233827</v>
+        <v>640.59386811748288</v>
       </c>
       <c r="B240" s="0">
-        <v>5.7715492244091964</v>
+        <v>4.1727762571284126</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0">
-        <v>640.59280063854101</v>
+        <v>640.59190002204139</v>
       </c>
       <c r="B241" s="0">
-        <v>5.7394498835146974</v>
+        <v>5.0719783228265269</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0">
-        <v>638.79370634175837</v>
+        <v>638.79443783143881</v>
       </c>
       <c r="B242" s="0">
-        <v>5.501104498201741</v>
+        <v>5.1330020471002396</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0">
-        <v>638.79364070489567</v>
+        <v>638.79276491578378</v>
       </c>
       <c r="B243" s="0">
-        <v>5.5092646710409943</v>
+        <v>5.1716382295498438</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0">
-        <v>638.79426713806481</v>
+        <v>638.79588383533599</v>
       </c>
       <c r="B244" s="0">
-        <v>5.4265902977318312</v>
+        <v>4.3733681386693277</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0">
-        <v>640.59113343903152</v>
+        <v>640.59072077980056</v>
       </c>
       <c r="B245" s="0">
-        <v>5.6711298676270943</v>
+        <v>4.5274079354407171</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0">
-        <v>638.79277210533894</v>
+        <v>638.79311705122666</v>
       </c>
       <c r="B246" s="0">
-        <v>5.7789993425149762</v>
+        <v>4.2471673158886425</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0">
-        <v>636.99675428604303</v>
+        <v>636.99651695701903</v>
       </c>
       <c r="B247" s="0">
-        <v>6.1804886773487482</v>
+        <v>5.8064471579505765</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0">
-        <v>636.9959904587987</v>
+        <v>636.99682059627537</v>
       </c>
       <c r="B248" s="0">
-        <v>5.8377725474806725</v>
+        <v>5.4346014337894371</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0">
-        <v>636.99489653405033</v>
+        <v>636.99509661000627</v>
       </c>
       <c r="B249" s="0">
-        <v>5.6435713608957156</v>
+        <v>5.1484527532391313</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0">
-        <v>638.8027557954548</v>
+        <v>638.80711577006093</v>
       </c>
       <c r="B250" s="0">
-        <v>7.872304962397731</v>
+        <v>5.4267230991307667</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0">
-        <v>642.38865090639899</v>
+        <v>642.38919489621219</v>
       </c>
       <c r="B251" s="0">
-        <v>5.9707437822395919</v>
+        <v>5.4889813372555043</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0">
-        <v>640.59270347946028</v>
+        <v>640.59278058459779</v>
       </c>
       <c r="B252" s="0">
-        <v>6.068303011794189</v>
+        <v>5.9700614648703185</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0">
-        <v>640.59550443499882</v>
+        <v>640.59544481719479</v>
       </c>
       <c r="B253" s="0">
-        <v>5.6365088954193316</v>
+        <v>5.5402122486070615</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="0">
-        <v>640.59243809711177</v>
+        <v>640.59242615972187</v>
       </c>
       <c r="B254" s="0">
-        <v>5.8575224303717333</v>
+        <v>5.8443347904368723</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="0">
-        <v>640.59474782344512</v>
+        <v>640.59474443494139</v>
       </c>
       <c r="B255" s="0">
-        <v>5.8502842012560077</v>
+        <v>5.8468209299606588</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0">
-        <v>777.71665778683484</v>
+        <v>777.71631546499145</v>
       </c>
       <c r="B256" s="0">
-        <v>5.6976068478546953</v>
+        <v>5.2986249918718062</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="0">
-        <v>777.71841374719054</v>
+        <v>777.71873102210327</v>
       </c>
       <c r="B257" s="0">
-        <v>6.3839157319673152</v>
+        <v>5.622377150798278</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="0">
-        <v>777.71580391042164</v>
+        <v>777.7157350756637</v>
       </c>
       <c r="B258" s="0">
-        <v>5.9094504599161919</v>
+        <v>5.4771481182838562</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="0">
-        <v>779.51470090977762</v>
+        <v>779.51370267499385</v>
       </c>
       <c r="B259" s="0">
-        <v>6.0767104497074449</v>
+        <v>4.6759215656033142</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="0">
-        <v>777.71877401702875</v>
+        <v>777.71691446763305</v>
       </c>
       <c r="B260" s="0">
-        <v>6.5585635197341352</v>
+        <v>5.1517482943065147</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="0">
-        <v>779.51469828976826</v>
+        <v>779.51449252767418</v>
       </c>
       <c r="B261" s="0">
-        <v>6.5465882169719567</v>
+        <v>6.1553139072617906</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="0">
-        <v>775.91737093363042</v>
+        <v>775.91538367738974</v>
       </c>
       <c r="B262" s="0">
-        <v>5.7835310803136109</v>
+        <v>4.2163828016807505</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="0">
-        <v>777.71716796370481</v>
+        <v>777.71609468178656</v>
       </c>
       <c r="B263" s="0">
-        <v>6.4461217646807594</v>
+        <v>4.8604832992213147</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="0">
-        <v>775.91813253171802</v>
+        <v>775.91818638077564</v>
       </c>
       <c r="B264" s="0">
-        <v>5.8914720201702186</v>
+        <v>4.4199505844276938</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="0">
-        <v>779.51490851294432</v>
+        <v>779.51546367924277</v>
       </c>
       <c r="B265" s="0">
-        <v>6.2794105578447903</v>
+        <v>5.6775139401400088</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="0">
-        <v>779.51525683659736</v>
+        <v>779.51392884069912</v>
       </c>
       <c r="B266" s="0">
-        <v>6.7599207025056858</v>
+        <v>4.7121198935776887</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="0">
-        <v>777.71765735006977</v>
+        <v>777.71713040701877</v>
       </c>
       <c r="B267" s="0">
-        <v>5.9355742424767755</v>
+        <v>5.4827114377935144</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="0">
-        <v>777.7182089155948</v>
+        <v>777.71849607137244</v>
       </c>
       <c r="B268" s="0">
-        <v>6.3858045694475232</v>
+        <v>5.8965276601115484</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="0">
-        <v>783.10988573585212</v>
+        <v>783.10872714370646</v>
       </c>
       <c r="B269" s="0">
-        <v>6.7188447885983935</v>
+        <v>6.625908660714602</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="0">
-        <v>777.76588196497175</v>
+        <v>777.76658338684194</v>
       </c>
       <c r="B270" s="0">
-        <v>6.97336060999727</v>
+        <v>6.4632331847704165</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="0">
-        <v>779.80371449360143</v>
+        <v>779.80329076575288</v>
       </c>
       <c r="B271" s="0">
-        <v>6.6377035101094171</v>
+        <v>6.0222032002697716</v>
       </c>
     </row>
   </sheetData>
